--- a/summary.xlsx
+++ b/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>example</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>app\api</t>
+          <t>example\ios</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>app\api\cron</t>
+          <t>example\ios\Flutter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>app\products</t>
+          <t>example\ios\Runner</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>app\products\[id]</t>
+          <t>example\ios\Runner\Assets.xcassets</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>example\ios\Runner\Assets.xcassets\AppIcon.appiconset</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lib</t>
+          <t>example\ios\Runner\Assets.xcassets\LaunchImage.imageset</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lib\action</t>
+          <t>example\ios\Runner\Base.lproj</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lib\models</t>
+          <t>example\ios\Runner.xcodeproj</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lib\nodemailer</t>
+          <t>example\ios\Runner.xcodeproj\project.xcworkspace</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lib\scrapper</t>
+          <t>example\ios\Runner.xcodeproj\project.xcworkspace\xcshareddata</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>example\ios\Runner.xcodeproj\xcshareddata</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>public\assets</t>
+          <t>example\ios\Runner.xcodeproj\xcshareddata\xcschemes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>public\assets\icons</t>
+          <t>example\ios\Runner.xcworkspace</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>public\assets\images</t>
+          <t>example\ios\Runner.xcworkspace\xcshareddata</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>public\demo</t>
+          <t>example\ios\RunnerTests</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>example\lib</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,691 +664,3366 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\.env.local.copy</t>
+          <t>example\lib\samples</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I can't provide a summary of sensitive information such as database credentials or passwords. Is there anything else I can help you with?</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\.gitignore</t>
+          <t>example\lib\samples\file_explorer_sample</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>This code is a `.gitignore` file, which tells Git which files and directories to ignore. Here's a summary:
-**Ignored Files and Directories:**
-1. **Dependencies**: `node_modules`, `.pnp`, and `.pnp.js`
-2. **Testing**: `/coverage` directory
-3. **Next.js**: `.next/` directory, `/out/` directory
-4. **Production**: `/build` directory
-5. **Miscellaneous**:
-	* Files with `.DS_Store` extension (macOS-specific metadata files)
-	* Files with `*.pem` extension (security certificates)
-6. **Debugging**:
-	* Logs: `npm-debug.log*`, `yarn-debug.log*`, `yarn-error.log*`
-7. **Local Environment Files**: `.env*.local` files
-8. **Vercel**: `.vercel` directory
-9. **TypeScript**: `*.tsbuildinfo` file, `next-env.d.ts` file
-These ignored files and directories will not be committed to the Git repository, making it easier to manage dependencies, testing data, and other project-specific files.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\next.config.js</t>
+          <t>example\lib\samples\sliver_treeview</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Here is a summary of the code:
-**Next.js Configuration File**
-This code exports a `nextConfig` object, which configures Next.js for a web application. The configuration settings are as follows:
-* **Experimental features**: Enables two experimental features in Next.js:
-	+ `serverActions`: Allows server-side actions to be executed.
-	+ `serverComponentsExternalPackages`: Specifies an external package (`mongoose`) that can be used in server components.
-* **Image domains**: Whitelists specific domains for image loading, including:
-	+ `static-01.daraz.com` (main domain)
-	+ `static-01.daraz.com.np` and `np-live-21.slatic.net` (additional domains)
-Overall, this code sets up a Next.js project with experimental features enabled and custom image domain configurations.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\package-lock.json</t>
+          <t>example\lib\samples\treeview</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>This is a JSON object that lists various npm (Node Package Manager) packages and their respective versions, along with other metadata such as resolved URLs, integrity hashes, and dependencies.
-Here's a breakdown of the information contained in this object:
-* Each package is listed under its name as a key.
-* The value associated with each key contains additional metadata about the package.
-* This includes:
-	+ `version`: The version number of the package.
-	+ `resolved`: A URL from which the package was resolved from npm registry.
-	+ `integrity`: An integrity hash (e.g., SHA-512) that ensures the package has not been tampered with or corrupted during download.
-	+ `dev`: Whether this is a development dependency, as opposed to a regular one.
-	+ `requires`: A list of other packages that are required by the current package.
-The presence of this object suggests that it was generated from an npm installation log or a `package.json` file.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\package.json</t>
+          <t>example\lib\utils</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>**Package Summary**
-The provided code is a `package.json` file, which contains metadata for a Node.js project. Here's a summary:
-* **Project Name**: darazscan
-* **Version**: 0.1.0
-* **Private Project**: Yes
-* **Scripts**: Four scripts are defined:
-	+ `dev`: Runs the Next.js development server.
-	+ `build`: Builds the Next.js application.
-	+ `start`: Starts the Next.js server.
-	+ `lint`: Runs code linting for the project.
-* **Dependencies**:
-	+ Several libraries are listed, including:
-		- Front-end frameworks (React, React DOM)
-		- Utilities (axios, cheerio, nodemailer)
-		- UI components (headlessui/react, react-responsive-carousel)
-		- Databases (mongoose)
-		- Color management (supports-color)
-* **Dev Dependencies**:
-	+ TypeScript and its types
-	+ PostCSS and Tailwind CSS for styling
-	+ Autoprefixer for CSS prefixing
-This package file appears to be for a web development project using Next.js, React, and MongoDB, with additional dependencies for email sending and UI components.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\postcss.config.js</t>
+          <t>example\linux</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>This code exports an object that configures two CSS preprocessors:
-* `tailwindcss`: enables Tailwind CSS, a utility-first CSS framework.
-* `autoprefixer`: enables Autoprefixer, which adds vendor prefixes to CSS properties for browser compatibility.
-The configuration is minimal, with no additional settings specified for either plugin. This suggests that the user wants to use the default configurations for both Tailwind CSS and Autoprefixer in their project.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\README.md</t>
+          <t>example\linux\flutter</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>**DarazScrapper: A Next.js Application for Product Scraping and Price Tracking**
-The DarazScrapper application, built with Next.js, scrapes product details from the popular e-commerce site Daraz. It records the highest and lowest prices, provides a notification system for price changes, and uses MongoDB for data storage.
-**Key Features:**
-1. **Price Tracking**: Records highest and lowest prices over time.
-2. **Notification System**: Sends alerts when price drops below a set threshold.
-3. **Web Scraping**: Extracts product details like name, price, and rating.
-4. **Cron Jobs**: Schedules scraping tasks to run periodically.
-**Technologies Used:**
-1. Next.js (React framework)
-2. MongoDB (NoSQL database for storing scraped data)
-3. Bright Data (Data collection and web scraping tool)
-4. Node.js (Server-side environment)
-5. Tailwind CSS (Utility-first CSS framework)
-**Prerequisites:**
-1. Node.js v14 or higher
-2. npm or Yarn
-3. MongoDB instance
-**Installation:**
-1. Clone the repository.
-2. Install dependencies using npm or Yarn.
-3. Set up environment variables in `.env.local` file.
-**Usage:**
-1. Add product URL to scrape.
-2. The app will automatically track price and notify of changes.
-The live demo is available at [https://daraz-scraper.vercel.app/](https://daraz-scraper.vercel.app/). Contributions are welcome, and the project is licensed under the MIT License.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\tailwind.config.ts</t>
+          <t>example\macos</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Here is a summary of the code:
-**Tailwind CSS Configuration File**
-This file configures Tailwind CSS, a utility-first CSS framework. The configuration specifies:
-* **Content**: Where to search for HTML content to style (pages, components, and app files with JavaScript, TypeScript, JSX, TSX, and MDX extensions).
-* **Theme**: Customizes the appearance of the application.
-	+ **Colors**: Defines custom color palette with shades of red, orange, green, gray, white, black, and neutral colors.
-	+ **Box Shadow**: Adds a small box shadow effect (xs) to elements.
-	+ **Max Width**: Sets a maximum width of 1440px for the "10xl" class.
-	+ **Font Family**: Specifies custom font families for Inter and Space Grotesk fonts.
-	+ **Border Radius**: Defines a border radius value of 10px for the "10" class.
-* **Plugins**: Currently, no plugins are enabled.
-Overall, this configuration file sets up a consistent visual design for an application using Tailwind CSS.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\tsconfig.json</t>
+          <t>example\macos\Flutter</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>**Code Summary**
-This is a JSON configuration file for a TypeScript compiler. The configuration defines settings for compiling JavaScript files with TypeScript, targeting the ES5 environment.
-Key features of this configuration include:
-* **Target**: Compiling to ES5.
-* **Libraries**: Including DOM and iterable libraries.
-* **Strict Mode**: Enabling strict mode for better error detection.
-* **Module System**: Using the `esnext` module system with bundler-based resolution.
-* **ES Module Interoperability**: Allowing compatibility with ES modules.
-* **Isolated Modules**: Compiling each file separately.
-**Important Settings**
-* **SkipLibCheck**: Skips type checking for libraries.
-* **NoEmit**: Prevents the compiler from emitting files.
-* **Incremental**: Enables incremental compilation.
-* **Plugins**: Includes a plugin named "next".
-* **Paths**: Maps `@/*` to the current directory.
-**Includes and Excludes**
-The configuration includes types from:
-* `next-env.d.ts`
-* All TypeScript (`.ts`) and JSX (`.tsx`) files recursively (`**/*.ts`, `**/*.tsx`)
-* Types from `.next/types/**/*.ts`
-It excludes files from `node_modules` by default.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\vercel.json</t>
+          <t>example\macos\Runner</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>**Code Summary**
-This JSON object defines a single cron job with the following properties:
-* **`path`**: The URL path for the cron job, set to `/api/cron`.
-* **`schedule`**: A cron expression that schedules the job to run at minute 30 of hour 13 every day (0-23) of every month (`* * *`).</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\app\globals.css</t>
+          <t>example\macos\Runner\Assets.xcassets</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>This code is written in a CSS preprocessor called Tailwind CSS. It defines various design elements and styles for a web application.
-Here's a summary of the code:
-**Global Styles**
-* The `*` selector sets default styles for all elements, including margin, padding, box-sizing, and smooth scrolling.
-* The `@layer base` directive sets a font family (`font-inter`) for the `body` element.
-**Utilities Layer**
-The utilities layer defines various design components using Tailwind's utility classes. These include:
-* Button styles (`.btn`)
-* Headline text styles (`.head-text`, `.section-text`, etc.)
-* Carousel and slider styles
-* Product details page styles
-* Modal window styles
-* Navbar styles
-* Price info card styles
-* Product card styles
-* Searchbar input and button styles
-Each of these components uses Tailwind's utility classes to define specific design properties, such as colors, typography, spacing, and shapes.
-Overall, this code provides a set of reusable design components that can be used throughout the application.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\app\layout.tsx</t>
+          <t>example\macos\Runner\Assets.xcassets\AppIcon.appiconset</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Here is a summary of the code:
-**Next.js Project Setup**
-The code sets up a basic layout for a Next.js project. It imports fonts from Google Fonts and applies them to the global CSS.
-**Custom Fonts**
-Two custom font styles are created using `next/font/google`:
-- `inter`: A sans-serif font with various weights (300-700) in the Latin subset.
-- `spaceGrotesk`: Not used in this code snippet, but available for future use.
-**Metadata**
-The code defines metadata for the project, including:
-- `title`: "DarazScapper"
-- `description`: "Track product prices"
-**Root Layout Component**
-The code exports a `RootLayout` component that serves as the entry point for the Next.js app. It accepts `children` as a prop and returns an HTML structure with:
-- A `&lt;html&gt;` tag with the `lang` attribute set to `"en"`
-- A `&lt;body&gt;` tag with the `inter` font class applied
-- A `&lt;main&gt;` section with a fixed maximum width (10xl) and centered horizontally
-- A `&lt;Navbar&gt;` component (imported from another file)
-- The `children` prop, which represents the actual content of the page</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\app\page.tsx</t>
+          <t>example\macos\Runner\Base.lproj</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Here is a summary of the code:
-**Purpose:** The code defines a React functional component named `Home` that renders the main page content.
-**Components Used:**
-1. `HeroCarousel`: A custom carousel component for showcasing featured products.
-2. `ProductCard`: A custom card component for displaying individual products.
-3. `Searchbar`: A custom search bar component.
-4. `Image`: An image component from Next.js.
-**Key Features:**
-1. The code fetches all products using the `getAllProducts` action and stores them in the `allProducts` variable.
-2. It renders a hero section with a heading, subheading, and call-to-action (CTA) button.
-3. Below the hero section, it displays a search bar.
-4. The trending section features a list of products using the `ProductCard` component, rendered based on the fetched product data.
-**Export:** The `Home` component is exported as the default export of the file.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\app\api\cron\route.ts</t>
+          <t>example\macos\Runner\Configs</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Here is a summary of the code:
-**Functionality:** This is an API endpoint (`GET` request handler) that runs a "cron job" to scrape product details from Daraz, update the database with the latest prices, and send email notifications based on specific conditions.
-**Key Steps:**
-1. Scrape the latest product details using `scrapeDarazProduct`.
-2. Update the corresponding Product document in the database with the new price history.
-3. For each updated product, check its status using `getEmailNotifType` and determine whether to send an email notification based on specific conditions.
-4. If a notification is required, construct an email body using `generateEmailBody`, get the array of user emails, and send the email using `sendEmail`.
-**Error Handling:**
-* The function catches any errors that occur during execution and returns a JSON response with an error message.
-**Miscellaneous:**
-* The code uses Next.js's built-in `NextResponse` to return a JSON response.
-* It also imports various utility functions from other files, such as database connection (`connectToDB`), email sending (`sendEmail`), and price calculations (`getLowestPrice`, etc.).</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\app\products\[id]\page.tsx</t>
+          <t>example\macos\Runner.xcodeproj</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>**Code Summary**
-The code is a Next.js page component named `ProductDetails` that displays detailed information about a specific product. The page fetches data for the product and its similar products from an external API using `getProductById` and `getSimilarProducts` functions.
-**Key Features**
-1. **Product Details**: Displays the product's title, image, category, price, rating, reviews, and other relevant information.
-2. **Similar Products**: Fetches a list of similar products based on the current product's ID and displays them using a `ProductCard` component.
-3. **Modal**: A modal window is displayed with a link to view more details about the product.
-4. **Buy Now/Visit Shop**: Buttons are provided to allow users to buy the product or visit the seller's shop.
-**Imported Components**
-* `PriceInfoCard`: Displays price-related information (e.g., current, average, highest, and lowest prices).
-* `ProductCard`: Displays a card with details about each similar product.
-* `Modal`: A reusable modal component.
-**API Calls**
-* `getProductById`: Fetches data for the specific product based on its ID.
-* `getSimilarProducts`: Fetches a list of similar products based on the current product's ID.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\HeroCarousel.tsx</t>
+          <t>example\macos\Runner.xcodeproj\project.xcworkspace</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>**Summary**
-The provided code defines a React component named `HeroCarousel`. This component uses the `react-responsive-carousel` library to create a carousel with a list of images. The carousel is designed for a hero section and displays five images with corresponding alt text.
-**Key Features**
-1. **Image Carousel**: The component utilizes the `Carousel` component from `react-responsive-carousel` to display a slideshow of images.
-2. **Image Data**: The component uses an array of objects (`heroImages`) to store image URLs, alt text, and other relevant data.
-3. **Custom Arrows**: A custom arrow icon is displayed on top of the carousel using the `Image` component from `next/image`.
-4. **Carousel Settings**: The carousel is configured to auto-play, loop infinitely, and display images without thumbnails or status bars.
-**Exported Component**
-The `HeroCarousel` component is exported as a default export, making it available for use in other parts of the application.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\Modal.tsx</t>
+          <t>example\macos\Runner.xcodeproj\project.xcworkspace\xcshareddata</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Here is a summary of the code:
-**Purpose:** The `Modal` component is a React modal dialog that allows users to track a product by submitting their email address.
-**Features:**
-1. **Modal trigger**: A "Track" button opens the modal.
-2. **Email submission**: Users can enter their email address in a form, which triggers an API call to add the email to the product (using `addUserEmailToProduct` function).
-3. **Loading state**: A loading indicator is displayed while the API request is being processed.
-4. **Modal layout**:
-	* Header with logo and close button
-	* Brief description of the tracking feature
-	* Form with input field and submit button
-**Props:**
-1. `productId`: a unique identifier for the product to be tracked.
-**State variables:**
-1. `isOpen`: determines whether the modal is open or not.
-2. `isSubmitting`: indicates whether an API request is being processed (true) or not (false).
-3. `email`: stores the user's email address input in the form.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\Navbar.tsx</t>
+          <t>example\macos\Runner.xcodeproj\xcshareddata</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Here is a summary of the code:
-**File:** A React component file (likely written in JavaScript) for a navigation bar.
-**Imported Libraries:**
-* `Image` from "next/image" (a library for image optimization)
-* `Link` from "next/link" (a library for client-side routing)
-* `React` from "react" (the core library for building user interfaces)
-**Component Variables:**
-* `navIcons`: an array of icon objects with `src`, `alt`, and other attributes.
-**Navbar Component:**
-* A functional component that returns a `&lt;header&gt;` element with a `&lt;nav&gt;` inside.
-* The nav contains:
-	+ A link to the homepage with a logo image and text ("Daraz Scrapper").
-	+ An array of icon images (search, heart, user) generated from `navIcons` using the `map()` method.
-Overall, this code is likely part of a web application built with Next.js, and it's responsible for rendering a navigation bar with icons.</t>
+          <t>Not a File</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\PriceInfoCard.tsx</t>
+          <t>example\macos\Runner.xcodeproj\xcshareddata\xcschemes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>example\macos\Runner.xcworkspace</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>example\macos\Runner.xcworkspace\xcshareddata</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>example\macos\RunnerTests</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>example\screenshots</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>example\web</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>example\web\icons</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>example\windows</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>example\windows\flutter</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>example\windows\runner</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>example\windows\runner\resources</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>lib</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>lib\constants</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>lib\helpers</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>lib\listenable_node</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>lib\listenable_node\base</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>lib\node</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>lib\node\base</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>lib\tree_diff</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>lib\tree_view</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>lib\tree_view\widgets</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>test\listenable_node</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>test\mocks</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>test\node</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>test\tree_diff</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>test\tree_view</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>test\tree_view\fakes</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>test\tree_view\utils</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Not a File</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>animated_tree_view\.gitignore</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**This is a `.gitignore` file template**, which specifies patterns to ignore when committing changes to a Git repository.
+The code lists various types of files and directories that are commonly ignored, such as:
+1. Build artifacts (e.g., compiled binaries, class files)
+2. Log files
+3. Package files (e.g., JAR, WAR)
+4. IDE-specific files (e.g., IDEA, Android Studio)
+5. Obfuscation-related files
+6. Large media files
+7. Miscellaneous files (e.g., test reports, cache files)
+The purpose of this file is to prevent unnecessary files from being committed to the repository, keeping the codebase clean and organized.
+If you need help with customizing this list for your project or have questions about a specific type of file, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>animated_tree_view\.pubignore</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>This code is a `.gitignore` file, which contains patterns to ignore files and directories in a Git repository. Here's a summary of the content:
+**Ignored File Types:**
+1. **Build artifacts**: `node_modules/`, `dist/`, `*.class`, etc.
+2. **Compiled bytecode**: `*.py[cod]`
+3. **Log files**: `*.log`
+4. **Package files**: `*.jar`, `target/`, etc.
+5. **IDE configuration files**: `.idea/`, `.vscode/`, etc.
+6. **Large media files**: `*.mp4`, `*.tiff`, etc.
+7. **Miscellaneous files**: `*.pyc`, `*.swp`, etc.
+**Ignored Directory Names:**
+1. **Node dependencies**: `node_modules/`
+2. **Flutter/Dart directories**: `/doc/api/`, `.flutter-plugins`, etc.
+3. **Android Studio build artifacts**: `/android/app/debug`, etc.
+4. **IntelliJ configuration files**: `*.ipr`, `*.iws`, etc.
+**Ignored File Names:**
+1. `app.*.symbols`
+2. `app.*.map.json`
+3. `TEST*.xml`
+This `.gitignore` file helps to prevent tracking and committing of unnecessary files in a Git repository, keeping the commit history clean and focused on code changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>animated_tree_view\animated_tree_view.iml</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>This is a module file in XML format, specifically designed for the Android IDE (Integrated Development Environment) to manage a Java project.
+Here's a summary of the code:
+**Module Settings**
+* The module type is set to "JAVA_MODULE" with version 4.
+* It has a single component named "NewModuleRootManager".
+**Content**
+* The content section specifies source folders and excludes certain directories:
+	+ Includes two source folders: `lib` (non-test) and `test` (test).
+	+ Excludes several directories, including `.dart_tool`, `.idea`, `.pub`, and `build`.
+**Order Entries**
+* Three order entries are specified to manage dependencies and libraries:
+	1. "Android API 29 Platform" as the Java Development Kit (JDK) for this project.
+	2. A source folder entry (non-test).
+	3. Three library entries: "Dart Packages", "Dart SDK", and "Flutter Plugins", all at the project level.
+In summary, this module file configures an Android IDE project to use a specific JDK, includes certain source folders, excludes others, and manages dependencies with three libraries: Dart Packages, Dart SDK, and Flutter Plugins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>animated_tree_view\CHANGELOG.md</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Release Notes**
+The code contains release notes for an Animated Tree View package, detailing changes and fixes across various versions.
+**Key Changes**
+* **Version 2.2.x**: Fixes bugs related to animation controller and dependencies updates.
+* **Version 2.1.0**: Resolves issue with duplicate nodes on expand or collapse operations.
+* **Version 2.0.1**: Fixes indentation screenshot links in README.md
+* **Version 2.0.0**: Adds support for indentation, scoping lines, animated expansion indicators, and new utility methods to TreeViewController.
+* **Version 1.x.x**: Improves documentation, adds sliver support, fixes issues, and refactors code.
+**Breaking Changes**
+* Version 2.0.0 introduced breaking changes:
+	+ Replaced `expansionIndicator` param with `expansionIndicatorBuilder`.
+	+ Moved `indentPadding` to `indentation` as `width`.
+	+ Removed `level` from `TreeNodeWidgetBuilder`.
+Overall, the package has undergone significant improvements and bug fixes across various versions, adding new features and functionality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>animated_tree_view\LICENSE</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>This code is not a programming file to be summarized. It appears to be the contents of a LICENSE.txt file, specifically the MIT License agreement. The text outlines the terms and conditions under which the software can be used, distributed, and modified.
+There is no code to summarize. If you'd like to provide a programming file (e.g., Python, Java, JavaScript), I'll be happy to assist with summarizing it for you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>animated_tree_view\pubspec.yaml</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Package Name:** animated_tree_view (version 2.2.1)
+**Description:** A customizable, animated TreeView widget that allows for infinite nesting and children.
+**Key Features:**
+* Built on top of AnimatedList
+* Supports fully customizable nodes
+* Can be nested to infinite levels and children
+**Environment:**
+* Targeted for Flutter (sdk: "&gt;=3.0.0 &lt;4.0.0")
+* Requires specific dependencies:
+	+ scroll_to_index: ^3.0.1
+	+ diffutil_dart: ^4.0.1
+	+ collection: ^1.18.0
+	+ uuid: ^4.4.2
+**Dependencies and Dev Dependencies:**
+* Dependencies for running the package in production
+* Dev dependencies for testing (mockito, test_cov_console)
+**Screenshots:** Two screenshots are provided to demonstrate usage:
+	+ A simple TreeView example
+	+ A File Explorer sample</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>animated_tree_view\README.md</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>This documentation provides an overview of the `TreeNode` class and its methods, as well as the `TreeViewController` utility class.
+**TreeNode Class**
+The `TreeNode` class represents a node in a tree data structure. It has several properties and methods:
+* Properties:
+	+ `isLeaf`: indicates whether the node is a leaf (i.e., has no children)
+	+ `root`: gets the root node of the tree, traversing up the path if necessary
+	+ `level`: gets the level of the node in the tree (i.e., how many iterations it takes to get to the root)
+* Methods:
+	+ `elementAt`: gets a child node at a specified path
+	+ `add`, `addAll`, `remove`, `removeAll`, `removeWhere`: add or remove children from the node
+	+ `delete`: delete the current node
+	+ `clear`: clear all children from the node
+	+ `first`, `last`: get or set the first or last child of the node (note: these are getters only in the current implementation)
+	+ `insert`, `insertAll`, `insertAfter`, `insertBefore`: insert a child at a specified index or position
+	+ `removeAt`: remove a child at a specified index
+	+ `firstWhere`, `lastWhere`, `indexWhere`: find the first, last, or index of a child node that matches a given condition
+**TreeViewController Class**
+The `TreeViewController` class provides utility methods for controlling the tree view programmatically:
+* Methods:
+	+ `elementAt`: gets an item at a specified path from the root
+	+ `root`: gets the root node of the tree
+	+ `scrollToIndex`, `scrollToItem`: scrolls to an item with a given index or scrolls to a visible item
+	+ `toggleExpansion`: toggles the expansion of a tree node
+	+ `expandNode`, `collapseNode`: expands or collapses a tree node
+	+ `expandAllChildren`: expands all children of a node recursively
+**Future Goals**
+The documentation mentions two future goals:
+* Add RTL support (right-to-left support)
+* Add support for 2D scrolling using the 2D scrolling API</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\.gitignore</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>This code is a `.gitignore` file, which lists files and directories that should be excluded from version control in a Git repository.
+Here's a summary of what it excludes:
+1. **Miscellaneous**: .class, .log, .pyc, .swp, DS_Store, Atom temporary files, SVN repositories, and other IDE-related build artifacts.
+2. **IntelliJ-specific**: IntelliJ project and configuration files (.iml, .ipr, .iws) and the IDEA directory.
+3. **Flutter/Dart/Pub-related**: Flutter documentation files, Dart tool directories, plugin and dependency files, and Pub cache directories.
+4. **Symbolication and Obfuscation**: Symbolic file artifacts for app debugging and obfuscation maps.
+5. **Android Studio-specific**: Build artifact directories for debug, profile, and release builds.
+These exclusions are likely intended to prevent unnecessary or sensitive files from being committed to the repository.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\.metadata</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>This is a `.yaml` configuration file for a Flutter project, used to track properties and metadata for the project. Here's a summary of its contents:
+**Project Properties**
+* `version`: The project version, with a specific revision hash (`80c2e84975bbd28ecf5f8d4bd4ca5a2490bfc819`) and channel (`stable`).
+* `project_type`: The project type is set to `app`.
+**Migration Metadata**
+* `migration`: This section tracks metadata for the Flutter migrate command.
+	+ It lists various platforms (root, android, ios, linux, macos, web, windows) with identical settings:
+		- `create_revision` and `base_revision` are set to the same revision hash (`80c2e84975bbd28ecf5f8d4bd4ca5a2490bfc819`).
+* `unmanaged_files`: This list specifies local paths (relative to this file) that should be ignored by the migrate tool. The examples provided are:
+	+ `lib/main.dart`
+	+ `ios/Runner.xcodeproj/project.pbxproj`
+In summary, this configuration file sets up a Flutter project with specific properties and metadata for migration purposes, including platform-specific settings and unmanaged files to ignore during migration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\analysis_options.yaml</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Purpose:** This file configures the analyzer for Dart code, which checks for errors, warnings, and lints to enforce good coding practices.
+**Main Configuration:**
+* Includes recommended lints from `flutter_lints/flutter.yaml` for Flutter apps, packages, and plugins.
+* Customizable lint rules can be defined below to disable or enable additional rules.
+**Lint Rules:**
+* The `avoid_print` rule is disabled by default (can be uncommented to re-enable).
+* The `prefer_single_quotes` rule is not enabled by default (can be uncommented to enable).
+Overall, this file sets up the analyzer for Dart code to enforce coding best practices and can be customized as needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\pubspec.lock</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>This appears to be a YAML file containing metadata for various Dart packages and their dependencies, along with the versions of the Dart SDKs (Dart and Flutter) required by these packages.
+Here's a breakdown:
+1. **Package Metadata**:
+   The file contains information about several packages (`sky_engine`, `source_span`, etc.) including their descriptions, hashes (sha256), URLs for hosted sources on `pub.dev`, version numbers, source types (either SDK or hosted), and transitive dependencies.
+2. **SDK Requirements**:
+   Below the package metadata section, there are two sections for Dart and Flutter SDKs (`sdks`).
+   - The `dart` section specifies a range of versions for the Dart SDK that these packages depend on.
+   - Similarly, the `flutter` section specifies a version range for the Flutter SDK.
+3. **Summary**:
+   There's no explicit "summary" but based on the context, it seems like this file is part of a build or package management system (e.g., pub), and its purpose is to declare dependencies of packages on specific versions of the Dart and Flutter SDKs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\pubspec.yaml</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Project Overview**
+This is a Flutter project named "example". The project is private and not intended for publication on pub.dev.
+**Dependencies**
+The project depends on:
+* `flutter` (the main SDK)
+* `animated_tree_view` (a custom package located at path `../../animated_treeeview`)
+* `flutter_test` (for unit testing)
+* `flutter_lints` (for coding lint checks)
+**Flutter Configuration**
+The project uses Material Design and has the following configuration:
+* Uses Material Icons font
+* No assets or fonts are currently defined
+**Versioning**
+The project version is set to 1.0.0+1, indicating a major release with build number 1.
+Overall, this code sets up a basic Flutter project with private dependencies and minimal configuration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\README.md</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>This is a basic Flutter project template. It's a starting point for creating a new Flutter app, with links to resources such as tutorials, samples, and documentation to help get started with Flutter development. There is no actual code written in this file, but rather a guide on how to use it as a foundation for building your own Flutter application.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\.gitignore</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>This code is a `.gitignore` file, which is used to specify files and directories that should be ignored by Git version control system.
+In summary, this file ignores the following:
+* Various Xcode project files (`.mode1v3`, `.mode2v3`, etc.)
+* Derived data and build products
+* Flutter framework files and assets
+* Vagrant configuration files
+* Service definitions JSON file
+The exceptions listed at the end of the file indicate that certain default Xcode project files should not be ignored by Git.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Flutter\AppFrameworkInfo.plist</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+The provided code is an XML-based property list (`.plist`) file used by Apple's iOS and macOS operating systems.
+**Key Takeaways**
+1. **Property List Format**: The file follows the Apple-specific `plist` format, with a root element of `&lt;dict&gt;` containing key-value pairs.
+2. **Bundle Information**: The `.plist` contains configuration details for an application bundle:
+	* Development region: English (`en`)
+	* Executable name: `App`
+	* Bundle identifier: `io.flutter.flutter.app`
+	* Version and build numbers: 1.0
+3. **System Requirements**: The minimum required OS version is iOS 11 or later.
+**No Obvious Errors**
+The code appears to be a well-formed `.plist` file, with all necessary keys and values present.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Flutter\Debug.xcconfig</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>It appears you didn't provide any code. Can you please paste the code snippet you'd like me to summarize? I'll be happy to assist you with a concise summary of it, focusing on its key elements and functionality, especially from a coding files perspective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Flutter\Release.xcconfig</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>It seems like there is no actual code provided. The file extension ".xcconfig" suggests it's an Xcode configuration file, which typically contains key-value pairs of settings rather than executable code.
+If you'd like to provide the actual code, I'll be happy to assist with summarizing it for you!</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner\AppDelegate.swift</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+This is a Swift code snippet that sets up an iOS app with Flutter integration. It:
+1. Imports necessary frameworks (`UIKit` and `Flutter`)
+2. Defines a custom `AppDelegate` class, which overrides the `application(_:didFinishLaunchingWithOptions:)` method
+3. In this method, it registers the generated plugins using `GeneratedPluginRegistrant.register(with:)`
+4. Returns `true` to indicate successful app launch
+**Purpose**
+The purpose of this code is to create an iOS app that integrates Flutter plugins and enables them to be used within the app.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner\Info.plist</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>**iOS Property List File Summary**
+The provided code is an iOS Property List (`.plist`) file, which contains configuration information for an iOS application. The file is written in XML and uses the `plist` format.
+**Key Takeaways:**
+1. **Bundle Information**: The file defines various bundle-related keys, such as CFBundleDisplayName, CFBundleExecutable, CFBundleIdentifier, and CFBundleName.
+2. **Deployment**: The LSRequiresIPhoneOS key indicates that this app requires iOS (not just iPhone OS).
+3. **Storyboards**: The UILaunchStoryboardName and UIMainStoryboardFile keys point to specific storyboard files (LaunchScreen and Main, respectively).
+4. **Orientation Support**: The UISupportedInterfaceOrientations and UISupportedInterfaceOrientations~ipad arrays define the supported orientations for portrait and landscape modes on both iPhone and iPad.
+5. **Other Settings**: Other keys configure various aspects of the app, such as the ability to disable minimum frame duration on phone (CADisableMinimumFrameDurationOnPhone), support for indirect input events (UIApplicationSupportsIndirectInputEvents), and status bar appearance (UIViewControllerBasedStatusBarAppearance).
+**Purpose:**
+This `.plist` file is likely used in a Flutter project, where it serves as the `Info.plist` file that provides configuration information for the iOS app.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner\Runner-Bridging-Header.h</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>This is not a programming language I'm familiar with. Can you provide more context or information about what this code is written in and what it's supposed to do? 
+However, based on the file extension (.h), I would guess that this is an Objective-C header file.
+If that's correct, here's a possible summary:
+"This Objective-C header file imports 'GeneratedPluginRegistrant.h', likely part of a plugin registration process."</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner\Assets.xcassets\AppIcon.appiconset\Contents.json</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Image Asset Configuration**
+The provided JSON object configures image assets for an iOS app. It contains a list of images with their respective sizes, file names, and scaling factors.
+**Key Features:**
+* The list includes images in various sizes (20x20 to 1024x1024) and scales (1x, 2x, and 3x).
+* Images are categorized by device type: iPhone and iPad.
+* Each image has a specific filename that follows the format "Icon-App-[size]@[scale].png".
+* The configuration also includes metadata such as version and author information.
+**In Summary**, this code configures the image assets required for an iOS app to be displayed on different devices and scaling factors, ensuring proper rendering of icons across various iPhone and iPad models.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner\Assets.xcassets\LaunchImage.imageset\Contents.json</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>This code is a JSON (JavaScript Object Notation) file that contains information about image assets used in an iOS application. The file includes:
+* A list of images, each with:
+	+ An idiom value set to "universal", indicating the image can be used across all devices and screen sizes.
+	+ A filename, which varies by resolution (e.g., "LaunchImage.png" for 1x, "LaunchImage@2x.png" for 2x, etc.).
+	+ A scale value, which indicates the image's resolution (e.g., "1x", "2x", or "3x").
+* An info section with:
+	+ A version number set to 1.
+	+ Author information indicating this file was created by Xcode.
+This type of JSON file is commonly used in iOS projects to manage image assets and their corresponding resolutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner\Assets.xcassets\LaunchImage.imageset\README.md</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>This code is for a launch screen in an iOS app ( likely built with Flutter) and explains how to customize it by replacing image files.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner\Base.lproj\LaunchScreen.storyboard</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>**iOS Launch Screen Storyboard**
+This is an iOS launch screen storyboard file, created using Interface Builder. It defines the layout and behavior of the initial screen displayed to users when an app launches.
+**Key Features:**
+* A single `viewController` scene with a `view` containing:
+	+ An `imageView` displaying a custom "LaunchImage" (168x185 pixels)
+	+ The image is centered horizontally and vertically within its superview
+	+ The view's background color is white (#FFFFFF)
+* Autoresizing mask set for the view to scale to fill its parent container
+* Constraints are used to center the `imageView` both horizontally and vertically within its superview
+**Resource:**
+* A single image resource named "LaunchImage" with dimensions 168x185 pixels</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner\Base.lproj\Main.storyboard</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>This is an XIB file, a design file used by Apple's Interface Builder tool to create user interfaces for iOS apps. Here's a summary of its contents:
+* The file defines a single scene with a view controller named "Flutter View Controller" (customClass="FlutterViewController").
+* The view controller has a frame size of 600x600 and a content mode set to scaleToFill.
+* The view is assigned an autoresizing mask, allowing it to resize in both width and height.
+* A top and bottom layout guide are also defined for the view controller.
+In summary, this XIB file sets up a basic iOS app with a single scene containing a Flutter-powered view controller.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner.xcodeproj\project.pbxproj</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>This is an Xcode project file (`.xcodeproj`) in a text format, also known as a `pbxproj` file. It contains the configuration settings and build targets for an iOS app project.
+Here are some of the key things you can see in this file:
+1. **Build Targets**: There are two build targets: "Runner" (the main app) and "RunnerTests" (unit tests).
+2. **Configuration Settings**: The file defines several build configurations, including:
+	* Debug
+	* Release
+	* Profile (a release configuration for profiling)
+3. **Build Settings**: Each build configuration has its own set of build settings, such as:
+	* Compiler flags and optimization levels
+	* Asset catalog settings
+	* Swift version and bridging header settings
+4. **Native Targets**: There are two native targets: "Runner" and "RunnerTests".
+If you're trying to debug an issue with your Xcode project, this file can provide valuable information about the build configuration and settings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner.xcodeproj\project.xcworkspace\contents.xcworkspacedata</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+The provided code is an XML file that represents a workspace configuration.
+* It defines the XML version and encoding.
+* The root element is `&lt;Workspace&gt;`, which has a single attribute `version` set to `"1.0"`.
+* Inside the `&lt;Workspace&gt;` element, there is a child element `&lt;FileRef&gt;`. This element contains a single attribute `location` with value `"self:"`.
+**Purpose**
+This XML file appears to be a configuration file for an Integrated Development Environment (IDE) or a similar tool that manages workspaces. The `&lt;FileRef&gt;` element might reference a specific file or project within the workspace.
+**Key Takeaways**
+* This code is an XML file.
+* It defines a simple workspace configuration with a single referenced file.
+* The `version` attribute suggests compatibility with version 1.0 of a specific IDE or tool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner.xcodeproj\project.xcworkspace\xcshareddata\IDEWorkspaceChecks.plist</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>This code is a property list (plist) file written in XML format, used by macOS systems to store boolean values.
+In this specific example:
+* The plist file contains a single key-value pair:
+	+ Key: `IDEDidComputeMac32BitWarning`
+	+ Value: `true` (indicating that the warning is enabled)
+This type of file is likely used in an IDE (Integrated Development Environment) or a related application to store configuration settings, and in this case, it seems to be enabling a specific warning about 32-bit compatibility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner.xcodeproj\project.xcworkspace\xcshareddata\WorkspaceSettings.xcsettings</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>This code is a plist (Property List) file in XML format, which is a data format used by Apple operating systems.
+**In summary:** The code disables previews for an unknown application or system component. 
+Note: A plist file is typically used to store configuration settings and metadata for macOS and iOS applications, and this specific code snippet likely originates from an Apple-related context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner.xcodeproj\xcshareddata\xcschemes\Runner.xcscheme</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>**Xcode Scheme File Summary**
+The provided XML code represents an Xcode scheme file, which defines a set of actions to be performed on a project. The scheme is version 1.3 and has been upgraded to lastUpgradeVersion "1300".
+The scheme contains the following actions:
+1. **BuildAction**: Builds the `Runner.app` target in parallel with implicit dependencies.
+2. **TestAction**: Runs tests for the `RunnerTests.xctest` target, building it first in debug configuration.
+3. **LaunchAction**: Launches the `Runner.app` target in debug configuration using LLDB debugger and launcher.
+4. **ProfileAction**: Profiles the `Runner.app` target in profile configuration, using LLDB debugger.
+5. **AnalyzeAction**: Analyzes the project's build issues, currently empty.
+6. **ArchiveAction**: Archives the project's output in release configuration, revealing it in Organizer.
+The scheme targets a single project container, `Runner.xcodeproj`, with a primary buildable identifier of "primary" and a blueprinted identifier of "97C146ED1CF9000F007C117D". The scheme uses LLDB debugger and launcher for debugging and profiling actions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner.xcworkspace\contents.xcworkspacedata</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+The provided XML code defines a workspace configuration file, likely for an Xcode project.
+**Key Points:**
+* The file specifies the version as 1.0.
+* It contains a single `&lt;FileRef&gt;` element that references a file named "Runner.xcodeproj" located in a group named "Runner".
+* This suggests that the code is related to configuring an Xcode workspace, possibly for a Swift or Objective-C project.
+**Technical Details:**
+* The XML document has a version 1.0 encoding and uses UTF-8 character encoding.
+* The `&lt;Workspace&gt;` element contains a single child element, `&lt;FileRef&gt;`, which holds the reference to the "Runner.xcodeproj" file.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner.xcworkspace\xcshareddata\IDEWorkspaceChecks.plist</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>This code is a PLIST (Property List) file, specifically a binary property list file, commonly used in macOS and iOS development.
+In summary, this file contains a single boolean value set to `True` for the key "IDEDidComputeMac32BitWarning". This suggests that it's related to a warning or setting in an Integrated Development Environment (IDE), likely Xcode, regarding 32-bit compatibility on Mac.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\Runner.xcworkspace\xcshareddata\WorkspaceSettings.xcsettings</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>This code is a PLIST (Property List) file in XML format, which is a configuration file used by macOS and iOS applications.
+In summary, this specific PLIST file contains a single key-value pair:
+* The key is "PreviewsEnabled" and its value is `false`.
+This suggests that the application or system associated with this PLIST file has been configured to disable previewing or showing previews for certain files or data.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\ios\RunnerTests\RunnerTests.swift</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+The provided code is a test class in Swift, written for iOS development. It defines a `RunnerTests` class that inherits from `XCTestCase`, which is part of Apple's testing framework, XCTest.
+The `testExample()` function is an empty test method that currently does not contain any assertions or testing logic. The comment suggests adding tests to this class if code modifications are made to the Runner application.
+In essence, this code provides a basic structure for writing unit tests for an iOS app using Flutter and UIKit frameworks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\main.dart</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Overview**
+This is a Flutter app that displays an animated tree view. The app uses the `animated_tree_view` package to render the tree.
+**Features**
+* The app has a simple design with a blue theme.
+* A floating action button (FAB) at the bottom right corner toggles between expanding and collapsing all nodes in the tree.
+* Each node in the tree is represented as a card with a title, subtitle, and background color based on its level in the hierarchy.
+* When a node is tapped, a snackbar appears to display the node's key (if debug mode is enabled).
+* The app uses a `TreeViewController` to manage the tree's state.
+**Key Components**
+* `sampleTree`: A sample tree data structure built using the `TreeNode` class from the `animated_tree_view` package.
+* `_controller`: A reference to the `TreeViewController` instance, used to expand or collapse nodes in the tree.
+* `colorMapper`: An array of colors used to map node levels to background colors.
+**Behavior**
+* When the app starts, it expands all children of the root node (if enabled).
+* Tapping on a node toggles its expansion state and shows a snackbar with the node's key.
+* The FAB at the bottom right corner toggles between expanding and collapsing all nodes in the tree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\file_explorer_sample\file_explorer_sample.dart</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+This Flutter app is a simple file explorer with an animated tree view. The code is organized into several classes:
+1. `MyApp`: The main application widget.
+2. `MyHomePage`: The home page of the app, which contains the file explorer.
+3. `_MyHomePageState`: The stateful widget that manages the file explorer's UI.
+The file explorer uses a custom `TreeView` widget from the `animated_tree_view` package to display a tree-like structure of files and folders. Each node in the tree represents an `Explorable` object, which is either a `File` or a `Folder`. The app also uses extensions on the `ExplorableNode` class to determine the icon for each node.
+The code defines several classes:
+* `Explorable`: An abstract base class that represents a file or folder.
+* `File`: A concrete implementation of `Explorable` that represents a file with a name, creation date, and MIME type.
+* `Folder`: A concrete implementation of `Explorable` that represents a folder.
+The app's main functionality is to display the tree view of files and folders in the home page. The code also uses a `GlobalKey` to manage the app's scaffold state.
+**Key Features**
+* Animated tree view using the `TreeView` widget
+* Custom icons for each file or folder based on its type (e.g., images, videos)
+* Expansion behavior that scrolls to the last child when expanded
+* Support for multiple levels of nesting in the tree view
+Overall, this code provides a basic implementation of a file explorer with an animated tree view.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\sliver_treeview\sliver_treeview_custom_object_sample.dart</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Overview**
+The code is a Flutter app that demonstrates the use of `SliverTreeView` widgets to display hierarchical data in a custom list.
+**Key Features**
+1. **Typed Sliver List**: A basic example of using `SliverTreeView.simpleTyped` with a typed tree, where each node has a unique key and data.
+2. **Indexed Typed Sliver List**: An example of using `SliverTreeView.indexTyped` with an indexed typed tree, where each node has a unique index (e.g., "0A", "0C1B") and data.
+**Data Model**
+The code uses two classes to represent user data: `UserName` and `IndexedTreeNode`. The `simpleTree` and `indexedTree` variables define the hierarchical structure of the data, with each node having a unique key or index, respectively.
+**UI Components**
+The app uses various UI components from Flutter's Material Design library, including:
+1. `MaterialApp`: The root widget that defines the app's title, theme, and home page.
+2. `MyHomePage`: A `StatefulWidget` that contains the custom list view.
+3. `Scaffold`, `AppBar`, and `CustomScrollView`: UI components used to create a standard Flutter layout.
+**Behavior**
+The code uses an `AutoScrollController` to manage scrolling behavior within the custom list view. The `SliverTreeView` widgets are configured to display the hierarchical data in a flexible, expandable manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\sliver_treeview\sliver_treeview_sample.dart</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>**Flutter Animated Tree View Demo**
+This code demonstrates a simple animated tree view in Flutter using the `animated_tree_view` package. It showcases two types of trees:
+1. **Simple Sliver List**: A basic tree structure with nodes that can be expanded and collapsed.
+2. **Indexed Sliver List**: An indexed tree structure where each node has a unique key.
+**Key Features:**
+* Animated expansion and collapse of nodes
+* Customizable color scheme using the `colorMapper` variable
+* Support for scrolling to specific nodes using `ExpansionBehavior.scrollToLastChild`
+**Code Organization:**
+The code is organized into three main classes:
+1. **MyApp**: The root widget that sets up the Flutter app.
+2. **MyHomePage**: A stateful widget that contains the tree views.
+3. **_MyHomePageState**: The state class that manages the tree view data and animation.
+**Tree Data:**
+The code defines two tree structures using `TreeNode` and `IndexedTreeNode` classes:
+1. **simpleTree**: A simple tree structure with 7 nodes.
+2. **indexedTree**: An indexed tree structure with 7 nodes, each with a unique key.
+Overall, this code provides a basic example of how to implement animated tree views in Flutter using the `animated_tree_view` package.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\treeview\nodes_data_update_sample.dart</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Here's a summary of the provided code:
+**Overview**
+This is a Flutter app that displays an animated tree view with nodes and their corresponding data. The app allows users to navigate through three different tree datasets using a floating action button.
+**Main Components**
+1. **MyApp**: The root widget of the app, which creates a `MaterialApp` instance with a blue theme.
+2. **MyHomePage**: A stateful widget that displays the tree view and handles user interactions (e.g., navigating to the next tree).
+3. **_MyHomePageState**: The state management class responsible for updating the UI when the user navigates to a new tree.
+**Tree View**
+The tree view is rendered using the `TreeView` widget from the `animated_tree_view` package. It displays nodes and their data in a card-based layout, with each node's color determined by its level (using the `colorMapper` function).
+**Tree Datasets**
+Three tree datasets are defined:
+1. **defaultTree**: The initial tree dataset.
+2. **updatedTree**: A modified version of the default tree.
+3. **updatedTree2**: Another modified version of the default tree.
+These datasets are stored in a list (`testTrees`) and updated incrementally when the user navigates to a new tree using the `_nextTree` function.
+**UI Elements**
+The app's UI consists of:
+1. An `AppBar` with a title.
+2. A floating action button that triggers the next tree update.
+3. The tree view itself, which displays nodes and their data in a card-based layout.
+Overall, this code provides a basic example of how to create an animated tree view with multiple datasets and navigate between them using Flutter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\treeview\pre_populated_indexed_trees_sample.dart</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Overview**
+This code is a Flutter application that demonstrates an Animated Indexed Tree View widget. The tree view is populated with different scenarios, including adding and removing nodes at various levels.
+**Key Features**
+* The application uses the `animated_tree_view` package to create an animated indexed tree view.
+* The tree view is populated with multiple scenarios, each representing a different configuration of nodes (additions or removals) at various levels.
+* The user can navigate through these scenarios by pressing the "Next" button on the floating action bar.
+* A snackbar displays the key of the current node as it changes.
+**Code Structure**
+The code consists of:
+1. A `MyApp` widget that is the root of the application.
+2. A `MyHomePage` stateful widget that contains a tree view and a next button.
+3. The tree view is implemented using the `TreeView.indexed` widget, which takes an IndexedTreeNode as input.
+4. Multiple scenarios are defined as IndexedTreeNodes in the `testIndexedTrees` list.
+**IndexedTreeNode**
+The `IndexedTreeNode` class represents a node in the indexed tree. It has methods to add and remove child nodes, as well as a constructor to create a root node.
+I hope this summary is helpful! Let me know if you have any specific questions about the code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\treeview\pre_populated_trees_sample.dart</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Overview**
+This code creates a Flutter app that displays an animated tree view with different pre-populated trees. The app uses the `animated_tree_view` package to render the tree.
+**Main Components**
+* `MyApp`: The root widget of the application, which sets up the material design theme and home screen.
+* `MyHomePage`: The home screen widget, which contains a floating action button that navigates through different pre-populated trees.
+* `_MyHomePageState`: A stateful widget that handles the navigation between trees and displays the current tree.
+**Trees**
+The code defines several pre-populated trees using the `TreeNode` class from the `animated_tree_view` package. These trees are stored in a list called `testTrees`, which can be navigated through by clicking the floating action button.
+**Tree Navigation**
+The `_nextTree()` function is used to navigate to the next tree in the list when the floating action button is clicked. The current tree index is updated, and a snackbar is shown with the key of the new tree.
+**Tree Rendering**
+Each tree is rendered using the `TreeView.simple` widget from the `animated_tree_view` package. The tree is populated with the nodes defined in the corresponding pre-populated tree data structure (e.g., `defaultTree`, `nodesAddedTree`, etc.). The tree nodes are customized to display different levels and keys.
+Overall, this code creates an interactive Flutter app that allows users to explore different animated tree structures.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\treeview\treeview_custom_object_sample.dart</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Description**
+This Flutter app displays an animated tree view using the `animated_tree_view` package. The tree represents a hierarchical structure of user names.
+**Components**
+1. `MyApp`: The main application widget, which sets up the theme and home page.
+2. `MyHomePage`: A stateful widget that displays the tree view.
+3. `_MyHomePageState`: The state class for `MyHomePage`, responsible for building the UI.
+4. `UserName`: A simple data model representing a user with first name and last name properties.
+5. `tree`: A complex data structure representing the hierarchical tree of user names, created using the `TreeNode` class.
+**Features**
+1. The app uses a `MaterialApp` theme with a blue primary color scheme.
+2. The home page displays a single tree view widget.
+3. Each node in the tree view is represented by a `Card` widget with a title and subtitle.
+4. The tree expansion behavior is set to collapse other nodes when expanding a new one, and snap back to the top of the list.
+**Key Functions**
+1. `TreeView.simpleTyped`: A function from the `animated_tree_view` package that creates a simple tree view widget.
+2. `ExpansionBehavior.collapseOthersAndSnapToTop`: A behavior configuration that controls how nodes expand and collapse in the tree view.
+Overall, this code demonstrates how to use the `animated_tree_view` package to create an interactive tree view in a Flutter app, with custom data models and UI components.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\treeview\treeview_indexed_modification_sample.dart</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>**Summary**
+This is a Flutter app that demonstrates an Indexed TreeView with modification capabilities. The code uses the `animated_tree_view` package to display a tree structure, and the `example/utils/utils.dart` file is imported for utility functions.
+The app has a simple UI with an AppBar and a body containing a Scaffold with a SingleChildScrollView widget wrapping a Column. Inside this column, there's a TreeView widget that displays the Indexed TreeNode hierarchy.
+**Key Features**
+* The app starts with a single root node.
+* Users can add new nodes by pressing the "Add Node" button.
+* Each node has a child button to create a new child node under it.
+* There are buttons to insert a new node above or below the current one, as well as a remove button to delete nodes.
+* The clear all button is only available on the root node and deletes all its children.
+**Notable Components**
+* `IndexedTreeNode`: A class that represents a tree node with properties like level, key, parent, and children.
+* `TreeView.indexed()`: A widget from the `animated_tree_view` package that displays an Indexed TreeNode hierarchy.
+* `buildListItem`: A function that builds the UI for each node in the tree. It uses Card and ListTile widgets to display information about the node.
+Overall, this code showcases a simple yet powerful Indexed TreeView with modification capabilities, perfect for demonstrating tree-like data structures and manipulation in Flutter apps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\samples\treeview\treeview_modification_sample.dart</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+This Flutter app demonstrates a TreeView widget with animated expansion and scrolling. The code uses the `animated_tree_view` package to create a hierarchical list of items.
+**Key Features:**
+1. **TreeView**: A simple tree view is displayed on the home page, using the `TreeView.simple` widget from the `animated_tree_view` package.
+2. **Expansion Behavior**: The expansion behavior is set to scroll to the last child when an item is expanded.
+3. **Root Node**: The root node is displayed with a "Add Child" button and a "Clear All" button (only visible if there are children).
+4. **Child Nodes**: Each child node has an "Add Child" button and a "Remove Item" button.
+5. **Color Mapping**: A color mapping is used to highlight the level of each item in the list.
+**User Interactions:**
+1. Users can add new items to any node by clicking the "Add Child" button.
+2. Users can remove items from any node by clicking the "Remove Item" button.
+3. Users can clear all children of a node by clicking the "Clear All" button (only visible if there are children).
+**Package Dependencies:**
+1. `animated_tree_view`
+2. `example/utils/utils` (likely a custom utility package)
+3. `flutter/material.dart`</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\lib\utils\utils.dart</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+This code is written in Dart and uses the Flutter framework.
+It defines a color mapping using a `Map` where each key (integer) corresponds to a specific shade of blue-grey, ranging from very light (`Colors.blueGrey[50]`) to dark (`Colors.blueGrey[900]`). This map is accessible via the `colorMapper` variable.
+Additionally, it introduces an extension method on the `Color` class called `byLuminance`. This method calculates the luminance (brightness) of a color and returns either black or white based on whether the luminance is above or below 0.4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\.gitignore</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>This code is related to Flutter development.
+Unfortunately, you haven't provided any code for me to summarize. Please paste the code you'd like me to summarize, and I'll be happy to assist!</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\CMakeLists.txt</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>**Project Summary**
+This is a CMake project configuration file (`CMakeLists.txt`) for building a Flutter application. Here's a high-level summary of the code:
+**Project Settings**
+* The project name is `runner`.
+* The binary name is set to `example`.
+* The unique GTK application identifier is `com.example.example`.
+**Build Settings**
+* CMake policies are configured to avoid warnings with recent versions.
+* Modern CMake behaviors are enabled (`CMP0063 NEW`).
+* A root filesystem is set up for cross-building (if `FLUTTER_TARGET_PLATFORM_SYSROOT` is defined).
+**Compilation Settings**
+* A standard set of build settings is applied to the application target using the `APPLY_STANDARD_SETTINGS` function.
+* The application target is compiled with C++14 standards, `-Wall`, and `-Werror` flags. In Release mode, optimization level 3 and `NDEBUG` are enabled.
+**Flutter Library and Tool Build Rules**
+* The Flutter library and tool build rules are included from the `flutter` directory.
+**System-Level Dependencies**
+* PkgConfig is required for system-level dependencies.
+* GTK-3.0 is linked as a dependency using `pkg_check_modules`.
+**Application Target**
+* An executable target called `example` is created with source files `main.cc`, `my_application.cc`, and `generated_plugin_registrant.cc`.
+* The standard build settings are applied to this target.
+**Installation**
+* A clean build bundle directory is created every time.
+* The application, assets, and libraries are installed in the `$CMAKE_INSTALL_PREFIX` directory.
+Overall, this project configuration file sets up a CMake-based build system for building a Flutter application with GTK-3.0 as a dependency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\main.cc</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>This C code snippet is a minimal implementation of a command-line application using the GLib library. It:
+1. Includes the "my_application.h" header file.
+2. In the `main` function:
+	* Creates a new instance of `MyApplication` using the `my_application_new()` function and assigns it to a pointer with automatic memory management (`g_autoptr`).
+	* Runs the application with the specified arguments (`argc`, `argv`) using `g_application_run()`.
+3. The entire program returns an integer value from the `main` function, which indicates successful execution.
+In summary: This code sets up and runs a simple command-line application using GLib's GApplication API, creating an instance of "MyApplication" and running it with the provided arguments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\my_application.cc</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Overview**
+The code defines a custom `MyApplication` class that inherits from GTK's `GtkApplication`. This class is used to create a desktop application for running Dart code using the Flutter framework.
+**Key Features**
+1. **Window Creation**: The `my_application_activate` function creates a new window with a header bar (if running on GNOME) or a traditional title bar otherwise.
+2. **Dart Code Execution**: The `my_application_local_command_line` function sets up the Dart project and view, which is displayed in the created window.
+3. **Plugin Registration**: The `fl_register_plugins` function registers any plugins required for the Flutter application.
+4. **Dispose Functionality**: The `my_application_dispose` function frees resources when the application is disposed.
+**Other Notes**
+* The code uses GTK and Fl (Flutter Linux) libraries to integrate Dart code with a desktop application.
+* It includes some platform-specific logic for handling different window managers (e.g., GNOME, X11).
+* The `my_application_new` function creates a new instance of the `MyApplication` class.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\my_application.h</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**File:** `flutter_my_application.h`
+**Purpose:** Header file for a custom GTK application class (`MyApplication`)
+**Key points:**
+1. The file includes the GTK library.
+2. A new type `MyApplication` is declared using `G_DECLARE_FINAL_TYPE`.
+3. A function `my_application_new()` is declared to create a new instance of `MyApplication`.
+In summary, this code sets up the foundation for a custom application class (`MyApplication`) that builds on top of GTK and Flutter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\flutter\CMakeLists.txt</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Purpose:** This CMake script controls build steps for Flutter applications on Linux.
+**Key Features:**
+1. **Flutter Library:** The script builds the `flutter` library, which is the core engine of the Flutter framework. It sets up dependencies with GTK, GLIB, and GIO.
+2. **Published targets:** The script publishes several targets to the parent scope for use in subsequent build steps:
+	* `FLUTTER_LIBRARY`: the compiled `libflutter_linux_gtk.so` library
+	* `FLUTTER_ICU_DATA_FILE`: the ICU data file (`icudtl.dat`)
+	* `PROJECT_BUILD_DIR`: the project's build directory
+	* `AOT_LIBRARY`: the AOT (Ahead-of-Time) compiled library (`libapp.so`)
+3. **Flutter tool backend:** The script sets up a custom command to run the Flutter tool backend, which generates input/output lists for the build process.
+**Notable Functions:**
+1. `list_prepend`: a custom function that prepends a prefix to each element in a list.
+2. `add_dependencies`: adds dependencies to the `flutter` target.
+Overall, this script provides a build configuration for Flutter applications on Linux, setting up necessary dependencies and publishing targets for use in subsequent build steps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\flutter\generated_plugins.cmake</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>This CMake code snippet is responsible for:
+1. **Declaring and populating plugin lists**: It initializes two empty lists, `FLUTTER_PLUGIN_LIST` and `FLUTTER_FFI_PLUGIN_LIST`, which are meant to hold the names of plugins.
+2. **Configuring plugin dependencies**:
+	* For each plugin in `FLUTTER_PLUGIN_LIST`, it:
+		+ Adds a subdirectory for the plugin in the `plugins` directory.
+		+ Links the plugin's library to the main binary (`${BINARY_NAME}`).
+		+ Appends the plugin's bundled libraries to the `PLUGIN_BUNDLED_LIBRARIES` list.
+3. **Configuring FFI (Foreign Function Interface) plugins**:
+	* For each FFI plugin in `FLUTTER_FFI_PLUGIN_LIST`, it:
+		+ Adds a subdirectory for the FFI plugin in the `plugins` directory.
+		+ Appends the FFI plugin's bundled libraries to the `PLUGIN_BUNDLED_LIBRARIES` list.
+In summary, this code is setting up dependencies and configurations for Flutter plugins and their corresponding libraries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\flutter\generated_plugin_registrant.cc</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>This C++ code snippet is a generated plugin registrant for a Fl (Flexible Layout) application.
+Here's a brief summary:
+* The file is generated and should not be edited.
+* It includes the `generated_plugin_registrant.h` header file.
+* A single function, `fl_register_plugins`, is defined to register plugins with the `FlPluginRegistry`.
+* However, in this specific implementation, the `fl_register_plugins` function does nothing, as it only contains an empty function body.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\linux\flutter\generated_plugin_registrant.h</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>This code is a generated header file in C++ that provides a single function, `fl_register_plugins`, which registers Flutter plugins. The function takes a `FlPluginRegistry` pointer as an argument and returns nothing.
+In essence, this code allows for the registration of Flutter plugins using the provided function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\.gitignore</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>This is not code, but rather a list of directory paths that appear to be related to Flutter and Xcode development environments.
+The summary is:
+* The code lists two sets of directory paths:
+	+ **Flutter-related**: `/Flutter/ephemeral/` and `Pods/`, which are likely directories used by the Flutter framework.
+	+ **Xcode-related**: `/dgph` and `/xcuserdata/`, which are likely directories used by Xcode, an Integrated Development Environment (IDE) for iOS development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Flutter\Flutter-Debug.xcconfig</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>This code snippet includes a configuration file for a Flutter project, specifically an Xcode configuration file named "Flutter-Generated.xcconfig" from the "ephemeral" directory.
+In summary:
+* This is not actual executable code.
+* It's a preprocessor directive that tells the compiler to include the contents of another file (XCConfig).
+* The included file likely contains settings and configurations specific to the Flutter project being built.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Flutter\Flutter-Release.xcconfig</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>This is not a programming language or code, but rather a configuration file for an Xcode project.
+The line `#include "ephemeral/Flutter-Generated.xcconfig"` is including a configuration file named `Flutter-Generated.xcconfig` located in the `ephemeral` directory. This file likely contains settings and configurations specific to Flutter development in Xcode.
+There isn't much else to summarize, as this is just a single line of code that includes another file. If you'd like me to review or summarize other code snippets, feel free to provide them!</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Flutter\GeneratedPluginRegistrant.swift</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**File Type:** Generated File (Do Not Edit)
+**Import Statements:**
+* `FlutterMacOS`: A package for building Flutter applications on macOS.
+* `Foundation`: Apple's Foundation framework, which provides basic functionality such as data structures and algorithms.
+**Function:**
+* `RegisterGeneratedPlugins(registry:)` : An empty function that takes a `FlutterPluginRegistry` object as an argument. This function is likely used to register plugins for the Flutter application on macOS, but it does not contain any implementation code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\AppDelegate.swift</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Language:** Swift (with Cocoa and FlutterMacOS frameworks)
+**File Type:** MacOS Application Delegate class
+**Functionality:** 
+* This code defines an AppDelegate class that inherits from FlutterAppDelegate.
+* The `applicationShouldTerminateAfterLastWindowClosed` method returns `true`, indicating that the application should quit when all windows are closed.
+In summary, this code is a basic setup for a MacOS application using Flutter, which will terminate automatically when all windows are closed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\DebugProfile.entitlements</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>**Property List File Summary**
+The provided code is a Property List (plist) file, which is a binary format used by Apple for storing configuration data. The file contains the following security-related settings:
+* **com.apple.security.app-sandbox**: Enabled to indicate that the application operates in an app sandbox environment.
+* **com.apple.security.cs.allow-jit**: Enabled to allow Just-In-Time (JIT) compilation, which is a technique used by some compilers to improve performance.
+* **com.apple.security.network.server**: Enabled to grant the application permission to act as a network server.
+These settings suggest that the plist file is configuring an application for secure operation and granting it access to perform certain network-related tasks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\Info.plist</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>**Summary**
+The provided code is a Property List (PLIST) file, which is used by macOS and iOS applications to store metadata. The PLIST contains information about the application's development region, executable name, identifier, versioning, copyright, and other settings.
+**Key Features**
+* `CFBundleExecutable`: Specifies the executable name of the app.
+* `CFBundleIdentifier`: Identifies the app uniquely.
+* `CFBundleVersion` and `CFBundleShortVersionString`: Define the app's version number and short description.
+* `LSMinimumSystemVersion`: Specifies the minimum macOS version required to run the app.
+* `NSMainNibFile`: Points to the main nib file (MainMenu) for the app.
+**Usage**
+This PLIST file is likely used by Xcode, Apple's Integrated Development Environment, to compile and package the application. The variables enclosed in parentheses (e.g., $(DEVELOPMENT_LANGUAGE)) are placeholders that will be replaced with actual values during the build process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\MainFlutterWindow.swift</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
 **Code Summary**
-The code defines a reusable UI component called `PriceInfoCard` using Next.js. The component takes three props:
-* `title`: a string for the card title
-* `iconSrc`: a string for the icon source URL
-* `value`: a string for the card value
-The component renders a simple card with the following structure:
-1. A paragraph with the card title (`{title}`)
-2. A container with an image (using the `Image` component from Next.js) and a paragraph with the card value (`{value}`)
-The component is exported as the default export, making it available for use in other parts of the application.
-**Key Takeaways**
-* The code uses a functional component pattern
-* It utilizes the `Image` component from Next.js for image rendering
-* The component takes three props: `title`, `iconSrc`, and `value`
-* It returns a simple card structure with title, icon, and value sections</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\components\ProductCard.tsx</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+This code creates a custom `NSWindow` class called `MainFlutterWindow` that initializes a Flutter view controller when the window awakens. It sets up the Flutter view as the content view controller and registers generated plugins with it.
+In essence, this code enables running Flutter macOS apps in a native Cocoa window.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\Release.entitlements</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>**Code Summary**
-The `ProductCard` component is a React functional component that displays information about a product in a card format. It accepts a `product` object as a prop and uses it to render the following details:
-* A product image
-* Product title
-* Product category (limited to 2 categories)
-* Product price, displayed in the specified currency
-The component uses Next.js's built-in `Link` component to create a link to the product details page. The card is wrapped in a `Link` component, which allows users to navigate to the product details page when clicked.
-**Key Features**
-* Uses `Image` component from `next/image` for image rendering
-* Displays product information in a concise and readable format
-* Limits category display to 2 categories
-* Uses conditional rendering for currency symbol and price value</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\components\Searchbar.tsx</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+This is an Apple Property List (PLIST) file, also known as a PList or Info.plist.
+The code defines a single key-value pair in the root dictionary:
+* The key `com.apple.security.app-sandbox` has a value of `&lt;true/&gt;`, indicating that this application is sandboxed for security purposes.
+This PLIST file appears to be related to iOS or macOS app development, and its purpose is to configure the app's sandboxing settings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\Assets.xcassets\AppIcon.appiconset\Contents.json</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>**File Summary**
+This is a JSON file that contains metadata for a set of app icons. The file has two main sections:
+* **Images**: A list of nine app icon variants, each with the following properties:
+	+ `size`: The dimensions of the icon (e.g., "16x16", "128x128").
+	+ `idiom`: The platform for which the icon is intended ("mac" in this case).
+	+ `filename`: The name of the PNG file containing the icon.
+	+ `scale`: A factor indicating whether the icon should be scaled up or not (e.g., "1x" for no scaling, "2x" for twice the size).
+* **Info**: A dictionary with two properties:
+	+ `version`: The version number of the file's format (set to 1 in this case).
+	+ `author`: The tool that generated the file (in this case, Xcode).
+The icons are arranged in a pattern of increasing size and scaling factor. Each icon variant is intended for a specific platform ("mac" only) and has a corresponding filename that reflects its dimensions and scale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\Base.lproj\MainMenu.xib</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>This is a Xcode project file (`.xib`) that contains a menu bar with various menu items and submenus. The menu items are:
+* `Edit`
+	+ `Cut`
+	+ `Copy`
+	+ `Paste`
+	+ `Duplicate`
+	+ `Select All`
+* `Format`
+	+ `Font`
+	+ `Color`
+	+ `Size`
+	+ `Capitalize`
+* `Speech`
+	+ `Start Speaking`
+	+ `Stop Speaking`
+* `View`
+	+ `Enter Full Screen`
+* `Window`
+	+ `Minimize`
+	+ `Zoom`
+	+ `Bring All to Front`
+* `Help`
+The menu items are represented by a combination of XML tags and attributes, which define their properties such as title, id, modifier mask, and connections (actions) to other objects. The file also contains a window object with its own set of properties.
+This project file is likely related to a desktop application written in Objective-C or Swift using the Cocoa framework.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\Configs\AppInfo.xcconfig</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+This code defines application-level settings for a Flutter project, specifically the "Runner" target. It includes three settings:
+1. `PRODUCT_NAME`: The name of the application, set to "example".
+2. `PRODUCT_BUNDLE_IDENTIFIER`: A unique identifier for the app bundle, set to "com.example.example".
+3. `PRODUCT_COPYRIGHT`: The copyright notice displayed in application information, attributed to 2023 com.example.
+These settings appear to be placeholders or defaults that can be customized as needed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\Configs\Debug.xcconfig</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>It appears that you haven't provided any code for me to summarize. The text contains only metadata about my capabilities as a summarization assistant, but no actual code.
+If you provide the code you'd like me to summarize, I'll be happy to assist!</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\Configs\Release.xcconfig</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>It appears you haven't provided any code for me to summarize. The message includes headers that seem related to configuration settings for a project, possibly within an Xcode (Apple's integrated development environment) context, rather than coding files per se.
+If you meant to share some actual code or if this is not what you were looking for, please provide the details you'd like me to summarize. I'm here to help with summarizing code and providing explanations once code is provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner\Configs\Warnings.xcconfig</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Warning flags and settings**
+This code snippet sets various warning flags for a C/C++ project to ensure high-quality code. The flags cover a range of issues, including:
+* Code style (e.g., `-Wall`)
+* Uninitialized variables and nullability
+* Selector mismatching and availability
+* Duplicate method matching and repeated use of weak references
+* Pragma pack and strict prototypes
+* Shadow variable usage and unreachable code
+These settings are tailored to help prevent common programming errors, improve code readability, and ensure the project adheres to best practices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner.xcodeproj\project.pbxproj</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>This is an Xcode project file (`.xcodeproj`) written in Property List (Plist) format. It defines the build configurations and settings for a project.
+Here's a breakdown of the contents:
+1. **XCBuildConfiguration**: This section defines the build settings for different configurations, such as Debug and Release.
+	* Each configuration has its own set of build settings, like `ASSETCATALOG_COMPILER_APPICON_NAME`, `CLANG_ENABLE_MODULES`, etc.
+2. **XCConfigurationList**: This section defines the list of build configurations for a project or target.
+	* It specifies which build configurations are available and sets the default configuration to Release.
+Some notable entries in this file include:
+* `CODE_SIGN_ENTITLEMENTS` and `PROVISIONING_PROFILE_SPECIFIER` settings, which seem to be related to signing and provisioning profiles.
+* The use of `Manual` or `Automatic` codesign styles.
+* The specification of Swift version (5.0) and optimization level (`-Onone`).
+* The inclusion of entitlements files for Debug and Release configurations.
+Overall, this file provides a detailed configuration for building and running the project in different environments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner.xcodeproj\project.xcworkspace\xcshareddata\IDEWorkspaceChecks.plist</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>This code is a simple XML file written in the Property List (plist) format, which is used by Apple to store configuration data for applications. 
+It contains a single key-value pair:
+- `IDEDidComputeMac32BitWarning` is set to `true`.
+In essence, this code appears to be indicating that the application or system should display a warning about 32-bit compatibility on Mac OS X.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner.xcodeproj\xcshareddata\xcschemes\Runner.xcscheme</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>**Xcode Scheme Configuration**
+The provided code defines an Xcode scheme configuration file in XML format. The scheme is used to configure various actions such as building, testing, launching, profiling, analyzing, and archiving a project.
+**Key Components:**
+1. **Build Action**: Specifies the build settings for the project, including parallelization and implicit dependencies.
+2. **Test Action**: Configures test execution settings, including the debugger, launcher, and testable references.
+3. **Launch Action**: Defines launch settings for debugging and running the project.
+4. **Profile Action**: Configures profiling settings, including the build configuration and debug document versioning.
+5. **Analyze Action**: Specifies analysis settings, currently empty.
+6. **Archive Action**: Configures archiving settings, including the build configuration and revealing the archive in Organizer.
+**Notable Settings:**
+* The scheme is set to use LLD as the debugger and launcher.
+* Debugging and running are enabled for testing and launching.
+* Profiling is configured with a separate build configuration (Profile).
+* Analysis is not currently enabled.
+* Archiving is configured to release build configuration and reveal the archive in Organizer.
+Overall, this scheme configuration file provides detailed settings for various actions in an Xcode project.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner.xcworkspace\contents.xcworkspacedata</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>This XML code defines a workspace for an Xcode project.
+**Key Points:**
+* The file is an XML document with a `version` attribute set to 1.0.
+* It contains a single `Workspace` element, which is the root of this XML document.
+* Inside the `Workspace`, there's a `FileRef` element that references a file named "Runner.xcodeproj" in the "group" directory.
+**Functionality:**
+This code appears to be setting up an Xcode workspace by referencing a project file. When used in conjunction with other Xcode-related files, it might be used for building and managing projects in an Xcode environment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\Runner.xcworkspace\xcshareddata\IDEWorkspaceChecks.plist</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>This code is a simple Property List (PLIST) file in XML format, used by macOS to store boolean values.
+**Key Points:**
+* The file contains a single key-value pair with the key "IDEDidComputeMac32BitWarning" and value `true`.
+* This PLIST file is likely used by an application or system to indicate whether a specific warning should be computed for 32-bit Mac compatibility.
+* The file format conforms to Apple's Property List specification.
+Overall, this code snippet is a straightforward example of using PLIST files in macOS development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\macos\RunnerTests\RunnerTests.swift</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+This is a unit test class written in Swift for a macOS Flutter app. The code imports necessary frameworks (FlutterMacOS, Cocoa, and XCTest) and defines a test case `testExample`. However, the function remains empty, indicating that it's a stub or placeholder for future tests.
+In summary, this code provides a basic structure for writing unit tests for a Flutter-based macOS application, but no actual tests are implemented.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\web\index.html</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
 **Overview**
-This is a React functional component named `Searchbar` that provides an input field and a submit button to search for products on Daraz (a e-commerce platform). The component uses Next.js's `useRouter` hook to navigate to product details pages.
-**State Management**
-The component manages two state variables:
-* `searchPrompt`: the input value in the search bar
-* `isLoading`: a boolean indicating whether the search is in progress
-**Validation**
-The component checks if the input URL is valid using the `isValidDarazProductURL` function. This function attempts to parse the URL and verify that it belongs to Daraz (e.g., daraz.com, daraz.pk).
-**Submission Handling**
-When the submit button is clicked, the component:
-1. Prevents default form submission
-2. Validates the input URL using `isValidDarazProductURL`
-3. If valid, calls the `scrapeAndStoreProduct` function from a library (`"@/lib/action"`) to scrape product information and store it
-4. Navigates to the product details page using Next.js's `router.push`
-**Error Handling**
-The component catches any errors that occur during the submission process and logs them to the console.
-Overall, this code provides a simple search bar that allows users to input a Daraz product URL and navigate to the corresponding product details page.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\lib\mongoose.ts</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+This HTML file serves as an entry point for a Flutter web application. It sets up the necessary meta tags, links to various files (e.g., icons, manifest), and initializes the Flutter engine.
+**Key Features**
+1. **Base href**: The `&lt;base&gt;` tag is set with a placeholder value (`$FLUTTER_BASE_HREF`) that will be replaced by the `--base-href` argument provided during the `flutter build` process.
+2. **Meta tags &amp; icons**: The file includes various meta tags and links to icons specific to iOS, as well as a favicon.
+3. **Flutter initialization**: A script is added to initialize the Flutter engine, which involves downloading the main.dart.js file and running the application.
+**Key Functions**
+1. `_flutter.loader.loadEntrypoint`: Downloads the main.dart.js file and initializes the Flutter engine.
+2. `engineInitializer.initializeEngine()`: Initializes the Flutter engine.
+3. `appRunner.runApp()`: Runs the application.
+This summary provides an overview of the code's purpose, key features, and functions, making it easier to understand and work with this HTML file in a Flutter web development context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\web\manifest.json</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>This code is a JSON configuration file for a mobile application, likely an Android or iOS app. It appears to be a manifest file that defines the metadata and icons for the app.
+Here's a brief summary:
+* The app has a name, short name, start URL, and description.
+* It can run in standalone mode with a portrait-primary orientation.
+* It does not prefer related applications.
+* The app has four icon variants:
+	+ Two regular icons (192x192 and 512x512) for different screen densities.
+	+ Two maskable icons (also 192x192 and 512x512) for use on Android.
+Overall, this code defines the basic metadata and visual identity of a mobile application.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\.gitignore</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>This code is a `.gitignore` file, which is used by Git to ignore specific files or patterns when committing changes. 
+It appears to be specifically for Visual Studio projects and ignores:
+- User-specific settings and cache files (`*.suo`, `*.user`, etc.)
+- Build-related files in the x64 and x86 folders
+- Cache files that end with `.cache` (but keeps track of directories ending with `.cache`)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\CMakeLists.txt</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Functionality:** Establishes a connection to a MongoDB database using Mongoose.
+**Project Configuration**
+The code sets up a CMake project for an application, specifying the minimum required version as 3.14 and setting the project name to "example".
+**Build Settings**
+It defines build configuration options, including Debug, Profile, and Release modes, and sets default values for some settings.
+**Compilation Settings**
+A function `APPLY_STANDARD_SETTINGS` is defined to apply common compilation settings to most targets in the project.
+**Flutter Integration**
+The code includes Flutter library and tool build rules by adding subdirectories for "flutter" and "runner", as well as including generated plugin build rules from a separate CMake file.
+**Installation**
+It sets up an installation process, copying support files into place next to the executable, and defines several install targets, including the application binary, asset data directory, library directory, and AOT library on non-Debug builds only.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\flutter\CMakeLists.txt</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>**Summary**
+This is a CMake file that controls the build process for Flutter on Windows. It:
+1. Configures the build environment using `flutter tool`.
+2. Defines various libraries and targets, including:
+	* `flutter`: an interface library for accessing Flutter APIs.
+	* `flutter_wrapper_plugin`: a static library containing wrapper code for plugins.
+	* `flutter_wrapper_app`: a static library containing wrapper code for the runner app.
+3. Links against various libraries, including `flutter`, and includes necessary directories.
+4. Uses `add_custom_command` to run a custom command that generates output files using the Flutter tool backend.
+**Key Takeaways**
+* This file is specific to Flutter development on Windows.
+* It uses CMake to manage build dependencies and output files.
+* The file defines multiple libraries and targets, including interface libraries, wrapper code for plugins and apps, and output files generated by the Flutter tool backend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\flutter\generated_plugins.cmake</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>This code is a CMake script that manages the build and linking of Flutter plugins for Windows.
+**Main Functionality:**
+1. It initializes two lists, `FLUTTER_PLUGIN_LIST` and `FLUTTER_FFI_PLUGIN_LIST`, which are used to store the names of Flutter plugins.
+2. For each plugin in `FLUTTER_PLUGIN_LIST`, it:
+	* Adds a subdirectory to the build process for the plugin.
+	* Links the plugin's target library (`${plugin}_plugin`) to the main binary.
+	* Appends the plugin's bundled libraries to the `PLUGIN_BUNDLED_LIBRARIES` list.
+3. For each FFI (Foreign Function Interface) plugin in `FLUTTER_FFI_PLUGIN_LIST`, it:
+	* Adds a subdirectory to the build process for the plugin.
+	* Appends the plugin's bundled libraries to the `PLUGIN_BUNDLED_LIBRARIES` list.
+**Inferred Context:**
+This code is likely used in a build process that generates an executable or library using Flutter, and needs to include plugins and their dependencies. The script appears to be targeting Windows platforms.
+**Note:** This summary is based on the provided CMake script and may not capture all nuances of the original code. If you have specific questions about this code, feel free to ask!</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\flutter\generated_plugin_registrant.cc</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>This is a generated C++ file that appears to be part of a Flutter plugin registration process.
+Here's a summary:
+* The file includes a header called `generated_plugin_registrant.h`.
+* It defines a single function called `RegisterPlugins` that takes a pointer to a `flutter::PluginRegistry` object as an argument.
+* Inside the `RegisterPlugins` function, there is currently no code executed (it's empty).
+* The comment at the top suggests that this file should not be edited manually.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\flutter\generated_plugin_registrant.h</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**File Name:** `GENERATED_PLUGIN_REGISTRANT_`
+**Purpose:** This file defines a header for registering Flutter plugins.
+**Key Functionality:**
+* It includes the necessary header from the `flutter` library (`&lt;flutter/plugin_registry.h&gt;`).
+* It declares a single function `RegisterPlugins`, which takes a `flutter::PluginRegistry* registry` as an argument, and is responsible for registering Flutter plugins.
+* The file uses include guards (`#ifndef GENERATED_PLUGIN_REGISTRANT_`) to prevent multiple inclusions of the same header.
+This code appears to be generated by a tool (hence the comment "Generated file. Do not edit.") and is intended to be used as a header file in a larger project, likely for registering plugins with Flutter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\CMakeLists.txt</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**CMake File Summary**
+This CMake file generates an executable named `runner` for Windows platforms.
 **Key Features:**
-1. Checks if an existing connection is already established, and returns a success message if so.
-2. Verifies that the `MONGODB_URI` environment variable is defined; if not, logs an error message.
-3. Tries to connect to the specified MongoDB URI using Mongoose; catches any errors and logs them.
-4. Sets the strict query mode for Mongoose.
-**Return Value:** None (logs success or error messages)
-Let me know if you'd like me to elaborate on anything!</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\lib\utils.ts</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+1. **Target Definition**: The `runner` executable is created using `add_executable`.
+2. **Source Files**: Multiple source files are included in the project, including `flutter_window.cpp`, `main.cpp`, and generated plugin registration code.
+3. **Build Settings**: Standard build settings are applied to the project using `apply_standard_settings`.
+4. **Preprocessor Definitions**: Build version macros are defined for use in the project.
+5. **Dependency Libraries**: The project links against Flutter, Flutter Wrapper App, and DWMAPI libraries.
+6. **Run-Time Dependencies**: The project depends on the `flutter_assemble` target to run.
+Overall, this CMake file is used to build a Windows executable for a Flutter-based application.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\flutter_window.cpp</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Overview**
+The code defines a `FlutterWindow` class that inherits from a `Win32Window` class. This class is responsible for integrating Flutter, a cross-platform UI framework developed by Google, with Windows using Win32 APIs.
+**Key Features**
+* The `FlutterWindow` constructor takes a `flutter::DartProject` object as an argument and stores it in the `project_` member variable.
+* The `OnCreate()` method initializes a `flutter::FlutterViewController` instance with the correct window dimensions, ensuring that Flutter surfaces are created correctly.
+* The `OnDestroy()` method is called when the window is destroyed, releasing resources associated with the `flutter_controller`.
+* The `MessageHandler()` function is responsible for handling Windows messages and giving Flutter an opportunity to handle them before falling back to Win32 implementation.
+* Plugins are registered in the `RegisterPlugins()` function, which is called from `OnCreate()`.
+* A callback is set up to show the window when a new frame is available.
+**Summary**
+The code provides a basic integration of Flutter with Windows using Win32 APIs. It ensures that the correct resources are released and that messages are handled properly between Flutter and Win32.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\flutter_window.h</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+This C++ header file (`runner_flutter_window.h`) defines a class `FlutterWindow` that inherits from `Win32Window`. The purpose of this class is to host a Flutter view within a Windows window.
+The `FlutterWindow` class has the following key features:
+* It takes a `flutter::DartProject` object in its constructor, which represents the project to run.
+* It uses a `std::unique_ptr` to manage a `flutter::FlutterViewController`, which is responsible for hosting the Flutter view.
+* It overrides several methods from the base class (`Win32Window`) to handle window creation and destruction, as well as message handling.
+In summary, this code provides a way to create a Windows window that hosts a Flutter view, allowing for a seamless integration of Flutter into a desktop application.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\main.cpp</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Functions**
-1. **extractPrice**: Extracts and returns the price from a list of possible elements.
-	* Iterates through each element, extracts text, trims it, and replaces non-numeric characters with an empty string.
-	* If a match is found, returns the clean price value as a number (e.g., "10.99" becomes 10.99).
-2. **extractCurrency**: Extracts and returns the currency symbol from an element.
-	* Returns the first character of the text content if it's not empty.
-3. **extractDescription**: Extracts description from two possible elements on a Daraz page.
-	* Uses jQuery to select possible elements with class names ".a-unordered-list .a-list-item" or ".a-expander-content p".
-	* If a match is found, joins the text content of all matched elements and returns it as a string.
-4. **getHighestPrice**: Returns the highest price from a list of prices.
-	* Iterates through each price in the list and compares its value to the current highest price.
-	* Returns the highest price object.
-5. **getLowestPrice**: Similar to getHighestPrice, but returns the lowest price instead.
-6. **getAveragePrice**: Calculates and returns the average price from a list of prices.
-	* Reduces the list of prices to their sum and divides it by the count of prices to calculate the average.
-7. **getEmailNotifType**: Returns a notification type based on changes in product information (e.g., lowest price, stock status).
-8. **formatNumber**: Formats a number as a string with commas.
-**Constants**
-1. **Notification**: A set of constants for different types of notifications (WELCOME, CHANGE_OF_STOCK, LOWEST_PRICE, THRESHOLD_MET).
-2. **THRESHOLD_PERCENTAGE**: The threshold percentage for triggering a notification (40%).
-This code appears to be part of an application that scrapes product information from a Daraz page and provides email notifications based on changes in the data.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\lib\action\index.ts</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
+**Purpose:** Create a Windows executable for a Flutter app.
+**Main Function:** `wWinMain`
+**Flow:**
+1. Attach to console or create new one if running with debugger.
+2. Initialize COM library.
+3. Load Dart project from file "data".
+4. Parse command line arguments and pass them to the Dart project.
+5. Create a `FlutterWindow` object with specified dimensions and title.
+6. Enter main loop, processing Windows messages (e.g., keyboard input, window events).
+7. Clean up by uninitializing COM library.
+**Return Value:** 0 on success, non-zero on failure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\resource.h</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>This code is a resource file (.rc) used in Microsoft Visual C++ to define resources for an application. It defines one icon ID (`IDI_APP_ICON`) with value 101 and some default values for new objects created in the resource editor, specifically for Visual Studio's IDE (Integrated Development Environment). 
+The defined IDs will likely be used in other parts of the codebase to reference these resources. The `_APS_NEXT_*` definitions are placeholders for automatically generated resource IDs, commands, controls, and symbols when working within the Visual Studio environment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\runner.exe.manifest</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>**XML Assembly File Summary**
+This XML file represents a Windows assembly manifest, which is used to declare the compatibility of an application with different versions of Windows.
+The file contains two main sections:
+1. **Application Settings**: This section sets the DPI awareness to "PerMonitorV2", indicating that the application should be aware of the DPI settings for each monitor individually.
+2. **Compatibility Section**: This section lists the supported operating systems (OS) for the application, with specific IDs for:
+	* Windows 10 and Windows 11
+	* Windows 8.1
+	* Windows 8
+	* Windows 7
+Overall, this XML file is used to declare the compatibility of an application with various versions of Windows, allowing it to run on different OS environments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\Runner.rc</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>**Summary**
+This is a Microsoft Visual C++ generated resource script, specifically for an English (United States) version of an application.
+The code defines various resources, including:
+* **Icon**: The IDI_APP_ICON icon is defined with the path "resources\\app_icon.ico".
+* **Version**: The version number is determined by the FLUTTER_VERSION macros, or defaults to 1.0.0 if not defined.
+* **StringFileInfo**: This section contains information about the application, including:
+	+ CompanyName: com.example
+	+ FileDescription: example
+	+ FileVersion: The version number (e.g., "1.2.3.4")
+	+ InternalName: example
+	+ LegalCopyright: Copyright (C) 2023 com.example. All rights reserved.
+	+ OriginalFilename: example.exe
+	+ ProductName: example
+	+ ProductVersion: The version number (e.g., "1.2.3.4")
+**Key Takeaways**
+* This script is used to generate resources for an application, specifically the English (United States) version.
+* The code defines various resources, including icons and version information.
+* The version number is determined by macros or defaults to a specific value if not defined.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\utils.cpp</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Here's a summary of the provided code:
+**Purpose:** This C++ code is used to create and attach a console for Flutter desktop application on Windows, and to parse command line arguments.
+**Key Functions:**
+1. `CreateAndAttachConsole()`: Allocates and attaches a new console for the application, redirecting standard output and error streams to the console.
+2. `GetCommandLineArguments()`: Retrieves the command line arguments passed to the application, converts them from UTF-16 to UTF-8, and returns them as a vector of strings.
+3. `Utf8FromUtf16(const wchar_t* utf16_string)`: A helper function that converts a UTF-16 encoded string to UTF-8.
+**Includes:** The code includes various Windows-specific libraries (`flutter_windows.h`, `io.h`, `windows.h`) and C++ standard library (`iostream`).</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\utils.h</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Functionality**
-This code provides a set of functions for scraping and storing product data from an e-commerce platform (Daraz), as well as retrieving and manipulating product information in a database.
-**Functions**
-1. **scrapeAndStoreProduct**: Scrapes product data from Daraz using `scrapeDarazProduct`, checks if the product already exists, and updates its price history if it does.
-2. **getProductById**: Retrieves a product by ID from the database.
-3. **getAllProducts**: Retrieves all products from the database.
-4. **getSimilarProducts**: Retrieves up to 3 similar products (by ID) from the database for a given product ID.
-5. **addUserEmailToProduct**: Adds an email address to the list of users interested in a product and sends a welcome email.
-**Dependencies**
-The code relies on:
-1. `next/cache` for caching purposes
-2. `mongoose` for database connectivity
-3. `nodemailer` for sending emails
-4. Custom utility functions (`getAveragePrice`, `getHighestPrice`, `getLowestPrice`)
-5. A custom model (`Product`) and scrapper (`scrapeDarazProduct`)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\lib\models\product.model.ts</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+**File:** `runner_utils.h`
+**Purpose:** Provides utility functions for working with console outputs and command line arguments.
+**Functions:**
+1. `CreateAndAttachConsole()`: Creates a console for the process and redirects stdout and stderr to it.
+2. `Utf8FromUtf16(const wchar_t* utf16_string)`: Converts a UTF-16 encoded string to UTF-8, returning an empty string on failure.
+3. `GetCommandLineArguments()`: Retrieves command line arguments as a vector of strings, encoded in UTF-8, and returns an empty vector on failure.
+**Context:** This code is likely part of a larger project that interacts with the console and needs to handle Unicode-encoded strings and command line arguments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\win32_window.cpp</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>**Summary**
+This C++ code defines a `Win32Window` class that manages a Windows desktop window using the Win32 API. The class provides functionality for creating, showing, and destroying windows, as well as handling various window messages.
+**Key Features**
+1. **Window Creation**: The `Win32Window` constructor creates a new window with specified dimensions and position.
+2. **Theme Updating**: The `UpdateTheme` method updates the window's theme based on user preference settings (light or dark mode).
+3. **Child Window Management**: The class allows for managing child windows within the main window using the `SetChildContent` method.
+4. **Event Handling**: The `MessageHandler` function handles various window messages, such as WM_DESTROY, WM_DPICHANGED, and WM_SIZE.
+**Context**
+This code is likely used in a desktop application that requires creating and managing multiple windows, possibly with different themes or child content. The class provides a basic framework for handling these tasks, allowing for further customization and extension through inheritance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>animated_tree_view\example\windows\runner\win32_window.h</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>This is a C++ header file (`Win32Window.h`) that defines a class `Win32Window` for creating and managing high DPI-aware Win32 windows. The summary of the code is as follows:
+**Purpose:** This class provides an abstraction for creating and managing Windows-based windows, taking into account high DPI (dots per inch) displays.
+**Key Features:**
+* Creation and management of windows with title, origin, size, and content
+* Automatic non-client area DPI scaling
+* Handling of window messages (e.g., mouse events, size changes)
+* Customization through inheritance and overrideable methods (e.g., `OnCreate`, `OnDestroy`)
+* Support for hosted content and child windows
+**Methods:**
+* `Create`: Creates a new window with the specified title, origin, size, and content
+* `Show`: Shows the current window
+* `Destroy`: Releases OS resources associated with the window
+* `SetChildContent`: Inserts content into the window tree
+* `GetHandle`: Returns the backing Window handle
+* `SetQuitOnClose`: Sets a flag indicating whether closing this window will quit the application
+**Inheritance:** This class is designed to be inherited from by other classes that wish to specialize with custom rendering and input handling.
+Overall, this class provides a flexible and customizable way to create and manage Windows-based windows in a high DPI-aware manner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\animated_tree_view.dart</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Mongoose Schema Definition**
-The code defines a Mongoose schema for a "Product" model. The schema has the following properties:
-* `url`, `currency`, `image`, `title`, and `category` are string fields, with some requiring uniqueness or being marked as required.
-* `currentPrice`, `originalPrice`, `lowestPrice`, `highestPrice`, and `averagePrice` are price-related fields, each consisting of a text and value pair (e.g., "price.text" and "price.value").
-* `priceHistory` is an array field containing date-stamped price history entries.
-* `discountRate`, `description`, and other miscellaneous fields are also defined.
-* The schema also includes various fields for tracking reviews, ratings, quantities, and product metadata.
-**Model Export**
-The code exports the Mongoose model "Product" using the `mongoose.model()` method. If a model with this name already exists, it will be reused; otherwise, a new model will be created based on the defined schema.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\lib\nodemailer\index.ts</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+**Importing Libraries and Exporting Modules**
+This code snippet imports the `animated_tree_view` library and exports various modules from other packages, including:
+* Utilities for scrolling to an index
+* Exceptions handling
+* Listenable node implementations (IndexedListenableNode, ListenableNode)
+* Node-related classes (BaseINode, INodeActions, IndexedNode, Node)
+* Tree view components (TreeNode, TreeView, ExpansionIndicator, Indent)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\constants\constants.dart</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>The provided Dart code sets a duration value of 300 milliseconds and assigns it to a constant variable named `animationDuration`. 
+In other words, it defines an integer time interval for animations or similar processes that will last for 300 milliseconds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\helpers\collection_utils.dart</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+This Dart code defines an extension on the `Iterable` class, specifically for iterables of nullable types (`T?`). The extension provides two methods:
+1. **`filterNotNull()`**: Returns a new list containing only non-null elements from the original iterable.
+2. **`castToListOf&lt;S&gt;()`**: Converts the iterable to a list of type `S`, filtering out null elements and casting each element to `S`.
+Example use case:
+```dart
+void main() {
+  List&lt;int?&gt; numbers = [1, 2, null, 4];
+  List&lt;int&gt; nonNullNumbers = numbers.filterNotNull();
+  print(nonNullNumbers); // [1, 2, 4]
+  List&lt;String&gt; strings = ['a', 'b', null, 'd'];
+  List&lt;String&gt; nonNullStrings = strings.castToListOf&lt;String&gt;();
+  print(nonNullStrings); // ['a', 'b', 'd']
+}
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\helpers\event_stream_controller.dart</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Class EventStreamController**
+* A controller class for managing an event stream, allowing emission and subscription to events.
+* The class uses Dart's `StreamController` to manage the underlying event stream.
+* It provides methods to:
+	+ Emit new events using `emit()`
+	+ Close the event stream using `close()`
+In essence, this class is a wrapper around `StreamController` that makes it easier to work with event streams in Dart.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\helpers\exceptions.dart</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>**Custom Exceptions**
+The provided code defines four custom exceptions in Dart:
+1. **DuplicateKeyException**: thrown when a duplicate key is used.
+2. **NodeNotFoundException**: thrown when a node with the specified key does not exist, optionally including its parent's key.
+3. **ChildrenNotFoundException**: thrown when a node has no children.
+4. **ActionNotAllowedException**: thrown for various actions that are not allowed on specific nodes:
+	* Listening to event streams is not allowed for non-root nodes.
+	* Deleting the root node is not allowed.
+Each exception provides a detailed message with context, including the key of the affected node and its parent's key (if applicable). The exceptions can be thrown using the `throw` keyword or created using factory methods that provide additional information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\listenable_node\indexed_listenable_node.dart</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>This is a custom `IndexedListNode` class that extends the base `Node` class. It provides additional functionality for managing child nodes, including:
+* `removeAt(int index)`: Removes a child node at the specified index and notifies listeners of the change.
+* `removeAll(Iterable&lt;IndexedNode&gt; iterable)`: Removes all child nodes that match the given iterable.
+* `removeWhere(bool test(IndexedNode element))`: Removes all child nodes for which the given predicate returns true.
+* `clear()`: Clears all child nodes.
+It also overrides some methods from the base `Node` class, such as `elementAt(String path)` and `at(int index)`, to provide more specific behavior for managing indexed child nodes.
+Additionally, it provides utility methods `_notifyListeners()`, `_notifyNodesAdded(NodeAddEvent&lt;INode&gt; event)`, `_notifyNodesInserted(NodeInsertEvent&lt;INode&gt; event)`, and `_notifyNodesRemoved(NodeRemoveEvent&lt;INode&gt; event)` to notify listeners of changes in the node hierarchy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\listenable_node\listenable_node.dart</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Class:** `ListenableNode`
+**Inheritance:** `Node` with `ChangeNotifier` mixin and implementing `IListenableNode`
+**Purpose:** A listenable implementation of the `Node` class, allowing for notification of changes to its children or itself.
+**Key Features:**
+1. **Event Streams:** Two event streams are provided: `addedNodes` and `removedNodes`, which emit events when nodes are added or removed from the tree.
+2. **ValueListenable:** The node's value can be listened to using a `ValueListenableBuilder`.
+3. **Node Operations:** Various methods for manipulating the node's children, such as adding, removing, deleting, and clearing them.
+4. **Path Access:** A method `elementAt` allows access to a child node at a specific path.
+5. **Disposer:** A `dispose` method is provided to clear listeners and subscriptions when the node is no longer needed.
+**Notes:**
+* The class has a strong focus on notifying observers of changes to its state.
+* It assumes an existing `Node` class with certain methods (e.g., `addElement`, `removeElement`).
+* The implementation is designed to work within a larger tree structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\listenable_node\base\i_listenable_node.dart</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Overview**
+The code defines classes and interfaces for working with a hierarchical data structure (e.g., a tree or list) in Flutter. It provides a way to listen to updates on node additions, insertions, and removals.
+**Key Components**
+1. `IListenableNode`: An abstract class that extends `INode` and implements `ValueListenable`. It allows listening to changes in the node.
+2. `NodeUpdateNotifier`: An abstract class that provides granular control over which updates to listen to (e.g., added nodes, inserted nodes, removed nodes).
+3. `NodeEvent`, `NodeAddEvent`, `NodeRemoveEvent`, and `NodeInsertEvent`: Classes that represent events related to node updates.
+**Key Features**
+* Listenable nodes: Allow listening to changes in the node.
+* Node update notifications: Provide granular control over which updates to listen to (e.g., added, inserted, or removed nodes).
+* Event classes: Represent specific types of node updates (e.g., `NodeAddEvent`, `NodeRemoveEvent`).
+**Purpose**
+The code is designed to help developers build hierarchical data structures in Flutter that can be updated dynamically and notify listeners about changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\node\indexed_node.dart</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Class Description**
+The `IndexedNode` class represents a node in a tree data structure. It extends from an unspecified base class and implements various methods for managing child nodes.
+**Key Features**
+1. **Tree Data Structure**: The class maintains a hierarchical relationship between child nodes, with each node having a unique key.
+2. **Child Node Management**: Methods are provided to add, remove, and manipulate child nodes.
+3. **Path-based Access**: A method `elementAt` allows accessing a node at a specific path in the tree structure.
+4. **Index-based Access**: Direct access to a child node by its index is also supported.
+**Methods**
+The class provides numerous methods for managing child nodes, including:
+* `add`, `insert`, and `addAll` to add new child nodes
+* `remove`, `removeAt`, and `removeWhere` to remove existing child nodes
+* `clear` to clear all child nodes
+* `delete` to delete the current node
+Additionally, methods like `elementAt` and `at` provide access to child nodes based on their keys or indices.
+Overall, the `IndexedNode` class provides a comprehensive set of features for managing complex tree-like data structures in Dart.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\node\node.dart</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>**Class Summary**
+The `Node` class is a data structure that represents a node in a tree-like hierarchy. It extends the `INode` interface and implements the `INodeActions` protocol.
+**Key Features**
+1. **Children**: A map of child nodes, where each key is a unique identifier.
+2. **Parent**: The parent node (optional), with null indicating the root node.
+3. **Meta**: Additional metadata associated with the node.
+4. **Key**: A unique identifier for the node (generated automatically if not provided).
+5. **Methods**:
+	* `add(Node value)`: Adds a child node to the children map.
+	* `addAll(Iterable&lt;Node&gt; iterable)`: Adds multiple child nodes to the children map.
+	* `clear()`: Removes all child nodes from the children map.
+	* `remove(Node value)`: Removes a child node from the children map.
+	* `delete()`: Deletes the current node (only allowed on non-root nodes).
+	* `removeAll(Iterable&lt;Node&gt; iterable)`: Removes multiple child nodes from the children map.
+	* `removeWhere(bool Function(Node element) test)`: Removes child nodes that match a given condition.
+	* `elementAt(String path)`: Retrieves a child node at a specified path (utility method).
+**Constructor**
+The class has two constructors:
+1. **Default constructor**: Creates a new node with an optional key and parent.
+2. **Factory constructor (Node.root)**: Creates the root node with a fixed key.
+**Usage Example**
+```dart
+Node root = Node.root();
+root.addAll([
+  Node(key: "0A")..add(Node(key: "0A1A")),
+  // ...
+]);
+Node child = root.elementAt("0C.0C1C");
+print(child.toString());
+```
+Note that this summary is not an exhaustive list of all methods and properties, but rather a high-level overview of the class's key features and usage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\node\base\i_node.dart</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>**Class Summary: INode**
+The `INode` abstract class defines the base interface for all node objects in a hierarchical data structure. It provides methods and properties to navigate, manipulate, and inspect the tree structure.
+**Key Features:**
+1. **Unique Key**: Each node must implement a unique key property.
+2. **Parent-Child Relationship**: Nodes have a parent-child relationship, with each node having a single parent (except for the root node).
+3. **Children Collection**: Nodes can have multiple children, which can be represented as a collection of any data structure (e.g., List or Map).
+4. **Path and Level Calculations**: The class provides methods to calculate the path and level of a node within the tree.
+5. **Root and Leaf Node Identification**: It includes getters to determine whether a node is the root or a leaf node.
+**Methods:**
+* `elementAt(String path)`: Returns the child node at the specified path.
+* `[] (String path)`: Overloaded operator for accessing nodes using paths.
+* `get key`, `parent`, `children`, etc.: Property getters to access node properties.
+**Extensions:**
+1. **StringUtils Extension**: A custom extension on the String class, providing a method `splitToNodes` to split a string into individual node keys.
+Overall, this abstract class provides a robust foundation for building hierarchical data structures in Dart, making it easier to manage and manipulate complex tree-like relationships between nodes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\node\base\i_node_actions.dart</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Here's a summary of the code:
+**Purpose:** Define interfaces for working with nodes in an animated tree view.
+**Key Classes:**
+1. `INodeActions`: Defines basic actions that can be performed on a node, such as adding, removing, and deleting children.
+2. `IIndexedNodeActions`: Extends `INodeActions` and adds additional methods for working with indexed nodes (nodes that have a specific index or position in the tree).
+**Key Methods:**
+1. `add`, `addAll`, `remove`, `delete`, `removeAll`, `clear`, and `removeWhere` are methods defined in `INodeActions`.
+2. `at`, `first`, `last`, `insert`, `insertAll`, `insertAfter`, `insertBefore`, `removeAt`, `firstWhere`, `indexWhere`, and `lastWhere` are methods defined in `IIndexedNodeActions`.
+**Key Concepts:**
+1. Node management (adding, removing, deleting, etc.)
+2. Indexed node access and manipulation
+3. Tree traversal and searching for nodes that match specific criteria.
+This code is likely used to manage a complex tree-like data structure, where nodes have children and can be added or removed dynamically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\tree_diff\tree_diff_change.dart</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Here's a summary of the code:
+**Purpose:** Define a set of classes for representing changes to a tree-like data structure.
+**Key Classes:**
+1. `TreeDiffNodeChange`: An abstract class that represents any type of change to a tree node.
+2. `TreeDiffNodeAdd`, `TreeDiffNodeInsert`, `TreeDiffNodeRemove`, and `TreeDiffNodeUpdate`: Concrete classes that extend `TreeDiffNodeChange` and represent specific types of changes:
+	* `TreeDiffNodeAdd`: Add a new node to the tree.
+	* `TreeDiffNodeInsert`: Insert a new node at a specified position in the tree.
+	* `TreeDiffNodeRemove`: Remove an existing node from the tree (optionally specifying its position).
+	* `TreeDiffNodeUpdate`: Update the data of an existing node in the tree.
+**Key Features:**
+1. Each class has a unique constructor that takes relevant parameters (e.g., `data`, `position`).
+2. Each class overrides the `==` operator to enable equality checks with other instances.
+3. Each class overrides the `hashCode` getter to ensure consistent hash values for equal instances.
+**Context:** This code is likely part of a larger system for animating changes to a tree-like data structure, such as a file system or directory hierarchy. The classes defined here would be used to represent the changes that occur when modifying the tree, allowing the animation library (e.g., `animated_tree_view`) to efficiently compute and display the updated tree layout.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\tree_diff\tree_diff_util.dart</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>**Tree Diff Calculation**
+The code calculates the differences between two tree structures, `oldTree` and `newTree`, using a custom algorithm. The goal is to identify which nodes have been added, removed, updated, or remain unchanged.
+**Key Components:**
+1. **calculateTreeDiff**: The main function that takes in two trees (`oldTree` and `newTree`) and returns a list of changes.
+2. **TreeDiff**: A class that represents the differences between two trees. It contains various types of updates:
+	* `nodesAdded`: Added nodes.
+	* `nodesRemoved`: Removed nodes.
+	* `nodesInserted`: Inserted nodes (only applicable to indexed trees).
+	* `nodesUnchanged`: Unchanged nodes.
+	* `nodesUpdated`: Updated nodes.
+**Tree Diff Calculation Algorithm:**
+The algorithm uses a queue-based approach to traverse the tree structures. It starts with the root node and recursively explores its children. For each node, it checks if the child is present in both trees (`oldTree` and `newTree`). If so:
+* If the node's data has changed, mark it as updated.
+* Otherwise, mark it as unchanged.
+If a child node is only present in one of the trees:
+* Mark it as added or removed accordingly.
+The algorithm returns a list of changes, which can be used to update the tree structure visually (e.g., animated tree view).
+**Indexed Trees:**
+For indexed trees, a specialized algorithm (`calculateListDiff`) is used to calculate the differences. This algorithm takes into account the index-based nature of the tree and provides additional types of updates:
+* `nodesInserted`: Inserted nodes.
+* `nodesRemoved`: Removed nodes.
+Note that the code uses various helper classes and functions (e.g., `TreeDiffNodeChange`, `calculateListDiff`) to implement this complex calculation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\tree_view\tree_node.dart</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Summary**
+The code defines three classes (`ITreeNode`, `TreeNode`, and `IndexedTreeNode`) to facilitate working with trees in Flutter applications. These classes are designed to be used with the `TreeView` and `IndexedTreeView` widgets.
+**Key Features**
+* The `ITreeNode` mixin allows a data of type `[T]` to be wrapped in a `ListenableNode`.
+* The `TreeNode` class extends `ListenableNode` and implements `ITreeNode`, providing a basic tree node implementation.
+* The `IndexedTreeNode` class extends `IndexedListenableNode` and implements `ITreeNode`, providing an indexed tree node implementation.
+* All classes provide methods for caching and resetting child index information.
+**Usage**
+To use these classes, you can create custom tree nodes by extending one of the provided classes (e.g., `TreeNode` or `IndexedTreeNode`) and passing your own data type `[T]`. This allows you to work with trees in Flutter applications using the `TreeView` and `IndexedTreeView` widgets.
+Let me know if you'd like me to clarify any part of this summary!</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\tree_view\tree_view.dart</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>The code snippet is about a custom widget called `SliverTreeView` that provides an animated tree-like list view. Here's a summary:
+**Purpose:** 
+To provide a custom animated list view with expansion and collapse behavior.
+**Key Features:**
+1. **Expansion and Collapse**: The tree nodes can be expanded and collapsed.
+2. **Indexed Tree**: It uses an internal `IndexedNode` structure to maintain child states, which allows for indexed operations like insertion and removal of items at specific positions.
+3. **Animated List**: The list is animated with a scrollable behavior.
+4. **Lazy Loading**: Slivers are lazy loaded by default.
+**Methods:**
+1. `indexTyped`: Creates a typed version of the tree view using an `IndexedTreeNode`.
+2. `_TreeViewState`: Manages the state of the tree view, including insertion and removal of items, and building the list.
+3. `_insertedItemBuilder`, `_removedItemBuilder`: Builds the inserted or removed item widget.
+**Usage:**
+The code snippet provides a detailed explanation on how to use the `SliverTreeView` widget, including:
+1. Creating a typed version of the tree view using `indexTyped`.
+2. Using the `SliverTreeView.simpleTyped` for non-indexed operation.
+3. Extending the `IndexedTreeNode` instead of directly wrapping the data in it.
+**Best Practices:**
+The code snippet follows best practices by:
+1. Providing a clear and concise explanation of the widget's purpose and features.
+2. Using meaningful variable names and method signatures.
+3. Following standard Dart coding conventions.
+4. Providing examples and usage instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\tree_view\tree_view_state_helper.dart</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>It appears to be a Dart code snippet that defines two classes, `AnimatedListStateController` and `TreeViewExpansionBehaviourController`.
+**AnimatedListStateController**
+This class is responsible for managing an animated list of items. It provides methods to:
+* Insert an item at a specific index
+* Remove an item from the list
+* Remove all items that match a certain criteria (e.g., all children of a given node)
+* Get the index of an item in the list
+**TreeViewExpansionBehaviourController**
+This class is responsible for managing the expansion behavior of tree-like structures. It provides methods to:
+* Expand or collapse a specific node and its children
+* Toggle the expansion of a node
+* Apply different types of expansion behaviors (e.g., scrolling to the last child, snapping to the top)
+* Collapse all sibling nodes when expanding a new node
+The class takes an `AnimatedListStateController` instance as a parameter in its constructor.
+Overall, these classes seem to be part of a larger system that manages tree-like data structures and provides animations and interactions for them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\tree_view\widgets\expandable_node.dart</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
         <is>
           <t>**Summary**
-This Node.js code is designed to send automated emails based on product tracking notifications. It utilizes the `nodemailer` library to send HTML-formatted emails.
+The provided code is a custom implementation of an expandable tree view for Flutter applications. It consists of two main classes:
+1. **`ExpandableNodeItem`**: A stateless widget that represents a single node in the tree structure. It takes various parameters, including a `builder` function to render each node, an `animation` object to control expansion animations, and callback functions to handle user interactions (e.g., toggling expansion).
+2. **`ExpandableNodeContainer`**: A stateless widget that wraps around a child widget, providing additional functionality for expanding/collapsing tree nodes.
+The code includes two static methods (`insertedNode` and `removedNode`) that create instances of the `ExpandableNodeItem` class with specific parameters.
 **Key Features**
-1. **Notification Types**: The code defines four notification types:
-	* WELCOME (welcome email for new users)
-	* CHANGE_OF_STOCK (email when a product is back in stock)
-	* LOWEST_PRICE (email when a product reaches its lowest price)
-	* THRESHOLD_MET (email when a product's discount exceeds 40%)
-2. **Email Generation**: The `generateEmailBody` function generates the email subject and body based on the notification type, product information, and other variables.
-3. **Email Sending**: The `sendEmail` function sends an email using `nodemailer`, with options for customizing the from address, recipient list, HTML content, and subject line.
-**Key Functions**
-1. `generateEmailBody`: generates email body based on notification type
-2. `sendEmail`: sends an email using `nodemailer`
-**Notes**
-* The code uses environment variables (`process.env.EMAIL_PASSWORD`) to store sensitive information (email password).
-* The code assumes a specific email service provider (hotmail) and port number (2525). These values may need to be adjusted for production use.
-* Error handling is implemented in the `sendEmail` function, but it's recommended to add more robust error handling mechanisms.</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\lib\scrapper\index.ts</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>**Function Summary**
-The `scrapeDarazProduct` function is an asynchronous function that extracts product information from a given URL on the Daraz e-commerce platform. It uses the Axios library to make a GET request to the provided URL, and Cheerio to parse the HTML response.
-**Key Functionality**
-1. Extracts product data from a script tag in the HTML response using a regular expression.
-2. Parses the extracted JSON data to extract various product attributes, including:
-	* Seller information (shop name, URL, rating)
-	* Product rating and reviews
-	* Product brand and title
-	* Product description, categories, and tags
-	* Product price and availability information (sale price, original price, discount rate, quantity)
-3. Returns a `Product` object containing the extracted data.
-**Error Handling**
-The function catches any errors that occur during execution and throws a new error with a descriptive message.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\types\index.ts</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+* Expandable tree structure with animations
+* Customizable node rendering using a `builder` function
+* Callback functions for handling user interactions (e.g., toggling expansion)
+* Integration with Flutter's AutoScroll feature
+Overall, this code provides a flexible and customizable solution for implementing expandable tree views in Flutter applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\tree_view\widgets\expansion_indicator.dart</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>**Summary of the Code**
+This code provides a set of custom expansion indicators for an animated tree view in Flutter. The indicators are designed to visually represent the expansion state of a node in the tree.
+**Key Components:**
+1. `PositionedExpansionIndicator`: A widget that positions an expansion indicator on top of another widget.
+2. `ExpansionIndicator`: An abstract class that defines the properties and behavior of an expansion indicator.
+3. `NoExpansionIndicator`, `ChevronIndicator`, `PlusMinusIndicator`: Concrete implementations of the `ExpansionIndicator` class.
+**Behavior:**
+* The expansion indicators animate their appearance based on the expansion state of the underlying tree node.
+* They can be positioned at specific locations using the `alignment` property.
+* Each indicator has a custom implementation for animating its appearance when the tree node expands or collapses.
+**Use Cases:**
+1. Customizing the appearance of an animated tree view in Flutter.
+2. Creating visually appealing indicators for expanding and collapsing nodes in the tree view.
+3. Integrating with other widgets to create a comprehensive user interface.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>animated_tree_view\lib\tree_view\widgets\indent.dart</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>This is a custom painting widget for Flutter, designed to render indentation lines and shapes for a tree-like data structure. Here's a summary of the code:
+**Main Widget**
+The `IndentationPainter` class inherits from `CustomPainter`. It has two main methods: `_drawWithRoundedCorners` and `_drawWithSquareCorners`, which draw the actual indentation shape.
+**Drawing Methods**
+There are two drawing methods, each with an optional `drawBottom` parameter:
+1. `_drawWithRoundedCorners`: draws a rounded corner rectangle.
+2. `_drawWithSquareCorners`: draws a square-edged rectangle.
+Both methods take several parameters, including:
+	* `canvas`: the painting canvas
+	* `paint`: the paint used to draw the shape
+	* `strokeWidth`: the width of the shape's outline
+	* `center`, `topOrigin`, `cornerOuter`, `cornerInner`, `end`, and `bottom`: various points that define the shape
+**Helper Method**
+There is a helper method `_drawScopingLines` that draws scoping lines for the indentation. It takes several parameters, including:
+	* `canvas`: the painting canvas
+	* `origin`: the top-left corner of the scoping line
+	* `bottom`: the bottom edge of the scoping line
+	* `node`: the tree node being painted
+	* `paint`: the paint used to draw the scoping lines
+**Should Repaint**
+The `_IndentationPainter` class overrides the `shouldRepaint` method, which is called when the widget needs to be repainted. In this case, it returns true if either the indentation or the node being painted has changed.
+**Other**
+There are some other methods and variables used in the code, but they are mostly helper functions for `_drawWithRoundedCorners`, `_drawWithSquareCorners`, and `_drawScopingLines`. The main functionality is contained within these three drawing methods.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\listenable_node\listenable_indexed_node_test.dart</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>This is a test suite written in Dart, using the testing library `test`. The tests cover various scenarios related to an indexed listenable node data structure. Here's a summary of what I was able to extract:
+**Test Suite Structure**
+The test suite is organized into two groups:
+1. **Inserting Nodes**: Tests for inserting nodes into the listenable node and emitting events on the root node.
+2. **Accessing Nodes**: Tests for accessing nodes using various methods (keys, `elementAt`, `[]` operator, etc.).
+**Test Details**
+Some specific tests include:
+* Inserting a single node or multiple nodes at different indices and verifying that the correct events are emitted on the root node.
+* Accessing nodes by key, using the `elementAt` method, or the `[]` operator.
+* Verifying that nested nodes can be accessed using cascading paths (e.g., `node["0A"]["0A1A"]`).
+* Testing that an exception is thrown when trying to access a node with an invalid path.
+**Node Classes**
+The test suite uses two mock node classes:
+1. `IndexedListenableNode`: A mock implementation of the listenable node data structure.
+2. `mockListenableIndexedNode1`: A pre-populated instance of the indexed listenable node for testing purposes.
+Let me know if you'd like me to clarify anything!</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\listenable_node\listenable_node_test.dart</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>This is a test suite written in Dart, using the `test` and `group` functions from the `unittest` package. The tests cover various aspects of the `ListenableNode` class.
+The tests can be summarized into two main groups:
+**1. Event handling**
+* Test that an exception is thrown when trying to access the `removedNodes` stream on a non-root node.
+* Test that an event is emitted on the root node when removing a node from a non-root node.
+**2. Node access**
+* Test that the correct node can be returned using its key, `elementAt` method, and `[]` operator.
+* Test that the correct nested node in a hierarchy can be returned using cascading of `[]` operator and `elementAt` method with a path.
+* Test that an exception is thrown if an incorrect path is provided to `elementAt` method or `[]` operator.
+These tests cover various scenarios related to event handling and node access, ensuring that the `ListenableNode` class behaves correctly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\mocks\indexed_node_mocks.dart</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+The provided code defines several mock `IndexedNode` instances using the `animated_tree_view` package. These nodes are used to represent a hierarchical tree structure.
+**Key Points:**
+* The code uses the `IndexedNode` class from the `animated_tree_view` package.
+* Four types of mock nodes are created:
+	+ `mockIndexedNode1`, `mockIndexedNode2`, and `mockIndexedNode3`: These nodes have a root node with key "0A", "0B", and "0C" respectively, and several child nodes nested beneath them.
+	+ `mockNoRootIndexedNode1`, `mockNoRootIndexedNode2`, and `mockNoRootIndexedNode3`: These nodes do not have a root node and are created directly with keys "M1", "M2", and "M3" respectively.
+**Purpose:**
+The purpose of this code is likely to provide mock data for testing or demonstration purposes, allowing developers to visualize and interact with the hierarchical tree structure represented by the `IndexedNode` instances.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\mocks\listenable_indexed_node_mocks.dart</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+The provided Dart code creates four instances of `IndexedListenableNode`, which is a data structure used in the Animated Tree View package. The instances are:
+* `mockListenableIndexedNode1` to `mockListenableIndexedNode3`: These three nodes have a root key and contain a hierarchical structure of keys, with some nodes having multiple child nodes.
+* `mockNoRootListenableIndexedNode1` to `mockNoRootListenableIndexedNode3`: Similar to the previous ones, but without a root key.
+**Key Features**
+* Each node has a unique key (e.g., "0A", "M2", etc.).
+* Nodes can have multiple child nodes.
+* The hierarchy is deeply nested in some cases (up to 4 levels).
+**Purpose**
+The code appears to be creating sample data structures for testing or demonstration purposes, likely related to the Animated Tree View package.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\mocks\listenable_node_mocks.dart</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Purpose:** The code defines three mock `ListenableNode` objects, `mockListenableNode1`, `mockListenableNode2`, and `mockListenableNode3`.
+**Structure:** Each `ListenableNode` object represents a tree-like data structure with a hierarchical relationship between nodes. The trees are identical in structure, but differ in their root node keys ("M1", "M2", and "M3").
+**Tree Structure:**
+* Each tree has four top-level nodes: "0A", "0B", "0C", and one of the mock nodes (e.g., "0A1A" for `mockListenableNode1`).
+* The "0C" node has three children: "0C1A", "0C1B", and "0C1C".
+* The "0C1C" node has a child with key "0C1C2A", which in turn has three children with keys "0C1C2A3A", "0C1C2A3B", and "0C1C2A3C".
+The code uses the `ListenableNode` class from the `animated_tree_view` package to create these trees, allowing for animated changes to be propagated through the tree structure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\mocks\mock_indexed_trees.dart</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+The provided code creates a series of test trees using the `animated_tree_view` package. These test trees are used to demonstrate various scenarios, such as adding and removing nodes.
+Here's an overview of each tree:
+1. **defaultIndexedTree**: A basic tree with 3 level-0 children (A, B, C) and additional nested children.
+2. **nodesAddedIndexedTree**: Similar to `defaultIndexedTree`, but with additional level-1 children (D, E).
+3. **nodesRemovedIndexedTree**: The same as `defaultIndexedTree`, but with the removal of child node A and child C's entire subtree.
+4. **nodesLevelOneChildRemovedIndexedTree**: This tree has only one level-1 child (C) remaining after removal.
+5. **nodesLevelTwoChildRemovedIndexedTree**: This tree has a further reduced structure, with only two children: A and the modified subtree of C.
+**Key Points**
+* The code uses the `IndexedTreeNode` class from `animated_tree_view` to create hierarchical trees.
+* Each test tree is created using the `..addAll()` method to add child nodes recursively.
+* Trees are assigned to variables like `testTrees` for later use.
+Overall, this code sets up a series of tree structures to facilitate testing and visualization of various tree manipulation scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\mocks\mock_trees.dart</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
         <is>
           <t>Here is a summary of the provided code:
-**Data Types**
-The code defines several data types using TypeScript's `type` keyword. These include:
-1. **PriceHistoryItem**: An object containing a single property, `price`, which is an instance of the `Price` type.
-2. **User**: An object with a single property, `email`, which is a string.
-3. **Product**: A complex object containing various properties related to a product, such as its ID, URL, price history, reviews, ratings, and more.
-4. **NotificationType**: A union type (an enum-like construct) with four possible values: "WELCOME", "CHANGE_OF_STOCK", "LOWEST_PRICE", and "THRESHOLD_MET".
-5. **EmailContent**: An object containing two properties: `subject` and `body`, both strings.
-6. **EmailProductInfo**: An object with two properties: `title` and `url`, both strings.
-7. **Price**: An object containing two properties: `text` (a string) and `value` (a number).
-**Summary**
-The code defines a set of data types for working with products, users, notifications, and email content. The types are designed to be used in a larger application or API that manages products, sends notifications, and handles user interactions.</t>
+**Overview**
+The code defines several example trees using the `animated_tree_view` package in Dart. The trees are represented as hierarchical structures with key-value pairs at each node.
+**Example Trees**
+Five test trees are defined:
+1. **defaultTree**: A tree with nodes "0A", "0B", and "0C" as children of the root, and further nesting with "0C1C2A3C".
+2. **nodesAddedTree**: Similar to defaultTree but with additional nodes "0D" and "0E" added.
+3. **nodesRemovedTree**: A tree where node "0B" is removed from the original structure.
+4. **nodesLevelOneChildRemovedTree**: A tree where node "0C1B" is removed, leaving only its parent "0C".
+5. **nodesLevelTwoChildRemovedTree**: A tree where node "0C1C2A3B" and "0C1C2A3C" are removed, leaving only their common ancestor "0C".
+**Purpose**
+These example trees appear to be used for testing and demonstration purposes in the context of an animated tree view.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\mocks\node_mocks.dart</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>This Dart code defines three mock tree structures using the `animated_tree_view` package.
+The `mockNode1`, `mockNode2`, and `mockNode3` variables create complex tree nodes with multiple child nodes, representing a hierarchical structure. Each node has a unique key assigned to it.
+The purpose of this code is likely to provide sample data for testing or demonstration purposes within an animated tree view application. The exact functionality depends on the implementation of the `animated_tree_view` package and how these mock nodes are used in the context of that library.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\node\indexed_node_test.dart</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>The code appears to be a set of unit tests for a data structure called `IndexedNode`. The tests cover various scenarios, including:
+1. Correctly returning nodes from the `elementAt` method.
+2. Correctly returning nodes using the `[]` operator.
+3. Correctly returning nested nodes using cascading methods (`at`, `first`, `last`).
+4. Returning correct paths and levels for nodes.
+5. Returning the root node correctly.
+6. Throwing exceptions when incorrect paths are provided to the `elementAt`, `[]` operator, or `at` method.
+7. Throwing exceptions when trying to access non-existent children using `first`, `last`, or assignment.
+The tests seem to be verifying that the `IndexedNode` class behaves correctly and throws the expected exceptions in various scenarios.
+Here are some minor suggestions for improvement:
+* Consider adding more descriptive names for the test functions.
+* You might want to consider using a more robust way of asserting exceptions, such as `expect(() =&gt; ..., throwsA(isA&lt;...&gt;()))`.
+* Some of the tests seem to be testing very specific edge cases. While it's good to have comprehensive coverage, you might want to prioritize tests that cover more general scenarios.
+Overall, the code looks well-structured and easy to follow. The tests are clear and concise, making it easy to understand what's being tested.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\node\node_test.dart</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>**Summary**
+This code is a set of unit tests for the `Node` class in a Flutter application. The tests cover various aspects of the class, including:
+* **Node construction**: Tests ensure that new nodes are created with valid values and children.
+* **Adding children**: Tests verify that nodes can be added to other nodes correctly, without duplicating keys.
+* **Removing children**: Tests confirm that nodes can be removed from their parents using various methods (e.g., `remove`, `removeAll`, `clear`).
+* **Accessing nodes**: Tests ensure that nodes can be accessed by key, elementAt method, and path-based accessors (e.g., `[]`, `elementAt`).
+The tests also cover edge cases, such as:
+* Handling incorrect paths in the `elementAt` method and the `[]` operator.
+* Verifying that the root node is correctly identified.
+Overall, these tests provide a comprehensive coverage of the `Node` class's behavior and ensure its correctness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\tree_diff\tree_diff_util_test.dart</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>This code is a set of unit tests for a `calculateTreeDiff` function that calculates the differences between two trees. The tests cover various scenarios, including adding and removing nodes from the tree.
+Here are some key points about the code:
+1. **Testing structure**: The tests are organized into groups based on the type of tree being tested (e.g., `TreeNode`, `IndexedTreeNode`). This makes it easier to find and run related tests.
+2. **Expected results**: In each test, the expected result is specified using `expect` statements. This ensures that the actual output matches the expected output.
+3. **TreeDiffNode types**: The code uses three types of tree difference nodes: `TreeDiffNodeAdd`, `TreeDiffNodeRemove`, and `TreeDiffNodeUpdate`. These types are used to represent the different types of changes between the two trees.
+Some example tests include:
+* **Adding a node**: Test that adding a new node to the second tree results in a `TreeDiffNodeAdd` with the correct key and data.
+* **Removing a node**: Test that removing a node from the first tree results in a `TreeDiffNodeRemove` with the correct key and path.
+* **Updating a node**: Test that updating an existing node's data in both trees results in a `TreeDiffNodeUpdate` with the correct key and new data.
+The code is well-structured, and the tests cover a good range of scenarios. However, it would be even better to include more detailed comments or explanations about the expected behavior of the `calculateTreeDiff` function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\tree_view\indexed_tree_view_test.dart</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>**Test Suite Summary**
+This test suite is designed to verify the functionality of an `IndexedTreeView` widget in a Flutter application. The tests cover various scenarios:
+1. **Rendering**: Tests if the root node of the indexed tree is properly rendered.
+2. **Expansion and collapse**: Verifies that children of the indexed tree are expanded on tapping the root tile, and collapsed when tapped again.
+3. **Node addition**: Ensures that the `IndexedTreeView` updates correctly when a new node is added to the tree.
+4. **Node removal**: Tests if the `IndexedTreeView` updates properly when a node is removed from the tree.
+5. **Tree updating**: Verifies that the `IndexedTreeView` updates correctly when the underlying tree data changes.
+6. **Tree controller initialization**: Checks that a `TreeViewController` instance is initialized when the `onTreeReady` callback is fired.
+The tests use Flutter's built-in testing library, including `testWidgets`, `pumpWidget`, and `expect` statements to verify the expected behavior of the `IndexedTreeView` widget.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\tree_view\tree_view_test.dart</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>This code is a set of unit tests for a Tree View widget. The tests cover various scenarios such as:
+1. Expanding all nodes in the tree.
+2. Collapsing a node and its child nodes.
+3. Toggling expansion on a node and its child nodes.
+4. Retrieving a node by key using `elementAt`.
+5. Scrolling to an item or index in the tree.
+The tests use a widget called `FakeStatelessTreeView` which is likely a custom widget that wraps the actual Tree View widget being tested. The tests also use a `Completer` to wait for the Tree View controller to be ready before running the test logic.
+Some key methods used in these tests include:
+* `expandAllChildren`: Expands all nodes in the tree, including child nodes.
+* `collapseNode`: Collapses a node and its child nodes.
+* `toggleExpansion`: Toggles expansion on a node and its child nodes.
+* `elementAt`: Retrieves a node by key using the Tree View controller.
+* `scrollToItem`: Scrolls to an item in the tree.
+* `scrollToIndex`: Scrolls to an index in the tree.
+The tests use the `tester` object from the widget testing library to interact with the Tree View widget and verify its behavior.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\tree_view\fakes\fake_indexed_tree_view_widget.dart</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Overview**
+The code provides two implementations of an indexed tree view for Flutter applications. The first implementation uses a `StatelessWidget`, while the second uses a `StatefulWidget`.
+**IndexedTreeView Class**
+The code defines a class called `FakeStatelessIndexedTreeView` that extends `StatelessWidget`. This class takes an `IndexedTreeNode` object and renders it as an indexed tree view using the `TreeView.indexed` widget. The tree view can be customized with a builder function that defines how each node should be displayed.
+**Stateful IndexedTreeView Class**
+The code also defines a class called `FakeStatefulIndexedTreeView` that extends `StatefulWidget`. This class uses a state object to manage an index of trees, allowing the user to navigate through them. The tree view is updated when the user clicks the "Next" button.
+**Test Indexed Trees**
+The code defines three test indexed trees (`defaultIndexedTree`, `nodesAddedIndexedTree`, and `nodesRemovedIndexedTree`) that are used in the stateful implementation. These trees are used to demonstrate different scenarios for displaying an indexed tree view.
+**TreeView Configuration**
+The code configures the tree view with the following settings:
+* Expansion behavior: Scroll to last child
+* Show root node: True
+Overall, the code provides a basic framework for implementing an indexed tree view in Flutter applications using the `animated_tree_view` package.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\tree_view\fakes\fake_tree_view_widget.dart</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Here is a summary of the provided code:
+**Overview**
+The code consists of two main classes: `FakeStatelessTreeView` and `FakeStatefulTreeView`. These classes are used to display a tree view in Flutter applications using the `animated_tree_view` package.
+**FakeStatelessTreeView**
+This class extends `StatelessWidget` and displays a simple tree view with a root node. The tree is built from a `TreeNode` object, which can be created programmatically or loaded from an external source. The class also takes an optional callback function `onTreeReady`, which can be used to perform additional actions when the tree is ready.
+**FakeStatefulTreeView**
+This class extends `StatefulWidget` and displays a more complex tree view with multiple nodes and buttons for navigating through the tree. The tree is built from an array of `(TreeNode, List&lt;TreeNode&gt;)` objects, which represent different stages of a dynamic tree. The class has a state variable `stateCount`, which keeps track of the current stage in the array. A button labeled "Next" is used to switch between the different stages.
+**Helper Functions**
+The code also defines several helper functions for creating and manipulating `TreeNode` objects, including `defaultTree`, `longTree`, `nodesAddedTree`, and `nodesRemovedTree`.
+Overall, the code provides a basic framework for building and displaying complex tree views in Flutter applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>animated_tree_view\test\tree_view\utils\test_utils.dart</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Tree Node Testing Functions**
+The provided code defines three testing functions to verify the rendering and visibility of tree nodes in an animated tree view widget.
+1. **`testAllNodesAreRenderedOnTap`**: Tests that all nodes are rendered when tapped on.
+	* Taps on each node, waits for it to settle, and verifies that its children are also rendered.
+2. **`testAllNodesAreVisible`**: Verifies that all nodes are visible in the tree view.
+	* Checks that each node is present, and recursively tests its children if they exist.
+3. **`testChildNodesAreNotVisible`**: Tests that child nodes are not initially visible when their parent node is tapped.
+	* Recursively checks that each child node is invisible by default.
+These functions use the `WidgetTester` class from the Flutter test package to interact with the animated tree view widget and verify its behavior.</t>
         </is>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -664,678 +664,660 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\.env.local.copy</t>
+          <t>Github_repos\Daraz_Scraper\.env.local.copy</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>It appears you haven't provided any code for me to summarize. Please paste the code, and I'll be happy to assist you in summarizing it. The summary will include an overview of what the code does, key functions or components, and possibly notable algorithms or approaches used within the code.</t>
+          <t>I can’t summarize code without seeing it. You provided environmental variables and a summary statement, but no actual code to analyze. Is there something else I can help you with?</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\.gitignore</t>
+          <t>Github_repos\Daraz_Scraper\.gitignore</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>This code is a `.gitignore` file, which lists specific files and directories that should be ignored by Git.
-In summary, this `.gitignore` file instructs Git to ignore:
-* Dependencies and project setup files (e.g., `/node_modules`, `.pnp`)
-* Testing-related files and directories (e.g., `/coverage`)
-* Next.js build outputs (e.g., `/.next/`, `/build`)
-* Miscellaneous files (e.g., `.DS_Store`, `.pem` files)
-* Debug logs and error reports (e.g., `npm-debug.log`, `yarn-error.log`)
-* Local environment configuration files (e.g., `.env.local`)
-* Vercel-related files (e.g., `.vercel`)
-* TypeScript build outputs (e.g., `*.tsbuildinfo`, `next-env.d.ts`)
-By ignoring these files, this `.gitignore` file helps keep the Git repository organized and reduces unnecessary commits.</t>
+          <t>This code is a `.gitignore` file, which contains a list of patterns that tell Git which files to ignore.
+In summary, the ignored files are:
+* Node dependencies and configuration files (`/node_modules`, `.pnp`, `pnp.js`)
+* Test coverage files (`/coverage`)
+* Next.js build files (`/.next/`, `/out/`, `/build`)
+* Miscellaneous files like Apple's `.DS_Store` and PEM certificates (`*.pem`)
+* Debug logs from npm and yarn (`npm-debug.log*`, `yarn-debug.log*`, `yarn-error.log*`)
+* Local environment files (`*.env.local`)
+* Vercel deployment files (`/.vercel`)
+* TypeScript build information (`*.tsbuildinfo`)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\next.config.js</t>
+          <t>Github_repos\Daraz_Scraper\next.config.js</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Next.js Configuration**
-This code exports a `nextConfig` object, which configures a Next.js application.
-**Key Features:**
-1. **Server Actions**: Enables experimental server actions feature.
-2. **Server Components with External Packages**: Allows server components to use external packages like Mongoose.
-3. **Image Optimization**: Specifies allowed domains for image serving:
-	* `static-01.daraz.com` (and its subdomain `static-01.daraz.com.np`)
-	* `np-live-21.slatic.net`
-**Exports**
-The code exports the `nextConfig` object as a module, making it available to Next.js.</t>
+**Next.js Configuration File**
+This code defines the configuration for a Next.js project. The main settings are:
+* **Server-side rendering**: Server actions and server components are enabled, with an external package dependency on "mongoose".
+* **Image domain whitelisting**: Three domains are allowed to serve images: "static-01.daraz.com", "static-01.daraz.com.np", and "np-live-21.slatic.net".
+This configuration file is exported as a module for use in the Next.js project.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\package-lock.json</t>
+          <t>Github_repos\Daraz_Scraper\package-lock.json</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>This appears to be a JSON object containing metadata about various npm packages. The format is consistent with the output of `npm ls --json`, which displays information about installed packages.
-Here's a breakdown of what each section might represent:
-- **Package names**: Each top-level key represents an installed package, such as `@types/node`, `browserslist-db`, etc.
-- **Metadata**: For each package, there are several properties that provide details about the package:
-  - `version`: The version number of the package.
-  - `resolved`: A URL from which the package was fetched.
-  - `integrity`: A cryptographic hash value used to verify the integrity of the package. This is a way to ensure that the package hasn't been tampered with or altered during transmission.
-  - `dev` (optional): Indicates whether this package is development-related (`true`) or not (`false`).
-  - `requires` (optional): Lists other packages required by the current one.
-The overall purpose of such an output would be to provide detailed information about installed packages, which can be useful for debugging, dependency management, and tracking changes in a project's dependencies.</t>
+          <t>This appears to be a JSON file containing the dependencies for a Node.js project. It lists various packages, their versions, and any required sub-dependencies.
+Here's a brief summary:
+* There are 31 dependencies in total.
+* The oldest version is `0.2.4` (for the `ansi-regex` package) and the newest version is `11.0.0` (for the `whatwg-url` package).
+* Most packages have versions ranging from `1.x.x` to `3.x.x`, indicating they are relatively stable libraries.
+* Some notable dependencies include `fs-extra`, `inquirer`, `watchpack`, and `yaml`.
+If you need to update or install these dependencies for a project, this JSON file can be used as input for tools like npm or yarn.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\package.json</t>
+          <t>Github_repos\Daraz_Scraper\package.json</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>**Package File Summary**
-This is a `package.json` file, which is used to manage dependencies for a JavaScript project. Here's a summary of its contents:
-* **Project Information**: The package name is "darazscan" and version is "0.1.0". It's a private project.
-* **Scripts**: Four scripts are defined:
-	+ `dev`: runs the Next.js development server
-	+ `build`: builds the Next.js application
-	+ `start`: starts the Next.js server in production mode
-	+ `lint`: runs code linting for Next.js
-* **Dependencies**:
-	+ Several libraries are listed, including React, Next.js, Mongoose, and more.
-	+ Most dependencies have a specific version specified (e.g., "^1.7.17" means "1.7.17 or higher").
-* **Dev Dependencies**: These are packages required only for development, such as TypeScript, Autoprefixer, and PostCSS.
-Overall, this package file suggests that the project is a Next.js application with a focus on React, using Mongoose for database interactions, and employing Tailwind CSS for styling.</t>
+          <t>**Project Summary**
+This code is a `package.json` file, which is the configuration file for a Node.js project. Here's an overview of its contents:
+* **Name and Version**: The project is named "darazscan" with version "0.1.0".
+* **Scripts**: Four scripts are defined: `dev`, `build`, `start`, and `lint`, which run Next.js development, build, start, and lint commands respectively.
+* **Dependencies**: 10 libraries are listed as dependencies:
+	+ Frontend frameworks (React, React DOM)
+	+ UI components (HeadlessUI, React Responsive Carousel)
+	+ APIs (Axios)
+	+ Utilities (Cheerio, Supports Color)
+	+ Database integration (Mongoose)
+	+ Email sending (Nodemailer)
+* **Dev Dependencies**: 7 libraries are listed as dev dependencies:
+	+ Type definitions for Node.js and its dependencies
+	+ PostCSS plugins (Autoprefixer, Tailwind CSS)
+In summary, this project is a Next.js application that uses various frontend and backend libraries to build an app, likely for e-commerce or scanning purposes.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\postcss.config.js</t>
+          <t>Github_repos\Daraz_Scraper\postcss.config.js</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>This is a Node.js module that exports an object with a single property `plugins`. The `plugins` object contains two properties:
-* `tailwindcss`: An empty object, suggesting that the Tailwind CSS plugin is being used without any custom configuration.
-* `autoprefixer`: Also an empty object, indicating that Autoprefixer is being used to add vendor prefixes to CSS rules without any custom configuration.
-In summary, this code sets up a basic configuration for using Tailwind CSS and Autoprefixer in a Node.js project.</t>
+          <t>This code is exporting a configuration object for a JavaScript module, likely used in a build process or bundler such as Webpack. The object contains a single property `plugins` which has two child properties:
+- `tailwindcss`: This suggests the use of Tailwind CSS, a utility-first CSS framework.
+- `autoprefixer`: This is a plugin that adds vendor prefixes to CSS rules for better browser compatibility.
+In essence, this configuration exports an object that sets up and configures the plugins 'TailwindCSS' and 'Autoprefixer', which are commonly used in front-end development for styling web applications.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\README.md</t>
+          <t>Github_repos\Daraz_Scraper\README.md</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Here's a summary of the code:
-**Project:** DarazScrapper, a web application built with Next.js to scrape product details from Daraz, track price changes, and notify users when specific conditions are met.
-**Key Features:**
-1. **Price Tracking**: Records highest and lowest prices for products over time.
-2. **Notification System**: Sends alerts when price drops below a set threshold.
-3. **Web Scraping**: Extracts product details like name, price, and rating using Bright Data.
-4. **Cron Jobs**: Schedules scraping tasks to run periodically.
+**Project Name:** DarazScrapper
+**Description:** A Next.js web application that scrapes product details from Daraz, tracks price changes, and notifies users when specific conditions are met.
+**Features:**
+* Price tracking: Records highest and lowest prices for products over time.
+* Notification system: Sends alerts when price drops below a set threshold.
+* Web scraping: Extracts product details like name, price, and rating.
+* Cron jobs: Schedules scraping tasks to run periodically.
 **Technologies Used:**
-1. Next.js (React framework)
-2. MongoDB (NoSQL database for storing scraped data)
-3. Bright Data (data collection and web scraping tool)
-4. Node.js (server-side environment)
-5. Tailwind CSS (utility-first CSS framework)
+* Next.js: React framework for server-side rendering.
+* MongoDB: NoSQL database for storing scraped data.
+* Bright Data: Data collection and web scraping tool.
+* Node.js: Server-side environment.
+* Tailwind CSS: Utility-first CSS framework.
 **Prerequisites:**
-1. Node.js v14 or higher
-2. npm or Yarn
-3. MongoDB instance
+* Node.js v14 or higher
+* npm or Yarn
+* MongoDB instance
 **Installation:**
-1. Clone the repository
-2. Install dependencies using `npm install` or `yarn install`
-3. Set up environment variables in `.env.local`
-4. Start the development server using `npm run dev` or `yarn dev`
+1. Clone the repository and install dependencies using npm or Yarn.
+2. Set up environment variables in a `.env.local` file.
+3. Start the development server using `npm run dev`.
 **Usage:**
-1. Add the URL of the product you want to scrape
-2. The app will automatically track the price and notify you of any significant changes
-This code is a web scraper that uses Next.js, MongoDB, and Bright Data to scrape product details from Daraz and track price changes, with a notification system to alert users when specific conditions are met.</t>
+1. Add the URL of the product you want to scrape using the `addProductToScraper` function.
+2. The app will automatically track the price and notify you of any significant changes.
+**Website:** [https://daraz-scraper.vercel.app/](https://daraz-scraper.vercel.app/)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\tailwind.config.ts</t>
+          <t>Github_repos\Daraz_Scraper\tailwind.config.ts</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>This code is a configuration file for the Tailwind CSS framework, which is used to style web applications. Here's a summary of what it does:
-**Content**
-* Specifies the directories and files that Tailwind should scan for styling rules:
-	+ `./pages/**/*.{js,ts,jsx,tsx,mdx}`: Scan all JavaScript, TypeScript, JSX, TSX, and MDX files in the `pages` directory.
-	+ `./components/**/*.{js,ts,jsx,tsx,mdx}`: Scan all JavaScript, TypeScript, JSX, TSX, and MDX files in the `components` directory.
-	+ `./app/**/*.{js,ts,jsx,tsx,mdx}`: Scan all JavaScript, TypeScript, JSX, TSX, and MDX files in the `app` directory.
-**Theme**
-* Extends the default Tailwind theme with custom color schemes, box shadows, max widths, font families, and border radii:
-	+ Defines a primary color scheme with three colors (`#E43030`, `#D48D3B`, and `#3E9242`).
-	+ Sets a secondary color to `#282828`.
-	+ Defines several gray shades.
-	+ Sets a white-100 color to `#F4F4F4`.
-	+ Defines a black-100 color to `#3D4258`.
-	+ Sets a neutral-black color to `#23263B`.
+          <t>Here is a summary of the code:
+**Config File for Tailwind CSS**
+This configuration file defines the settings for a Tailwind CSS project. It specifies the content sources, theme options, and plugin configurations.
+**Content Sources**
+The `content` property points to three directories where Tailwind CSS should scan for HTML files that use classes:
+* `/pages/*.{js,ts,jsx,tsx,mdx}`
+* `/components/*.{js,ts,jsx,tsx,mdx}`
+* `/app/*.{js,ts,jsx,tsx,mdx}`
+**Theme Options**
+The `theme` property defines a set of custom color palettes and layout styles:
+* **Colors**: 14 predefined colors with varying shades (e.g., primary, secondary, gray-100 to -900)
+* **Box Shadow**: a single option for creating subtle box shadows (xs)
+* **Max Width**: a maximum width value of 1440px (10xl)
+* **Font Family**: two custom font families: Inter and Space Grotesk
+* **Border Radius**: a single value for creating a 10px border radius
 **Plugins**
-* Currently, no plugins are enabled.</t>
+The `plugins` property is empty, indicating that no additional plugins are being used in this Tailwind CSS configuration.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\tsconfig.json</t>
+          <t>Github_repos\Daraz_Scraper\tsconfig.json</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>This code is a configuration file for the `tsc` (TypeScript Compiler) in a project setup with Next.js.
-Here's a brief summary:
-* The configuration enables:
-	+ ES5 as the target JavaScript version
-	+ Interoperability between CommonJS and ES modules
-	+ Use of JSX with preservation of original syntax
-	+ Incremental compilation for performance improvements
-	+ Support for ESNext features via the "next" plugin
-* It specifies the following file patterns to include:
-	+ `next-env.d.ts`
-	+ All `.ts` and `.tsx` files recursively
-	+ `.ts` files in `.next/types/` directories (likely generated by Next.js)
-* It also excludes the entire `node_modules` directory from compilation.</t>
+          <t>This code is a JSON configuration file for a TypeScript compiler, specifically for the `tsc` (TypeScript Compiler) command.
+Here's a summary of its contents:
+**Compiler Settings**
+* The target runtime environment is ES5.
+* Various libraries are included (`dom`, `iterable`, and `esnext`).
+* JavaScript files are allowed, and strict type checking is enabled.
+* No output file will be generated (`noEmit: true`).
+**Module Resolution**
+* The module resolution strategy is set to "bundler".
+* ES6 modules are enabled with the `"esModuleInterop"` option.
+**Plugins and Paths**
+* A plugin named `next` is included.
+* The path resolver for `@/*` imports is configured to point to the current directory (`./*`).
+**File Inclusion and Exclusion**
+* Specific files are included, such as `next-env.d.ts`, all TypeScript/TSX files, and certain types definition files.
+* The `node_modules` directory is excluded from compilation.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\vercel.json</t>
+          <t>Github_repos\Daraz_Scraper\vercel.json</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>**Code Summary**
-The provided code is a JSON object containing a single key-value pair, `"crons"` which holds an array of cron job configurations.
-* The array has one element with the following properties:
-	+ `path`: A string indicating the API endpoint for the cron job, set to `/api/cron`.
-	+ `schedule`: A string specifying the schedule for the cron job, in the format "minute hour day month year", set to `30 13 * * *`. This translates to running the job at minute 30 of every hour 13 on all days of all months and years.
-In essence, this code defines a single cron job that triggers at 1:30 PM daily.</t>
+          <t>This is a JSON object that defines a single cron job. Here's a brief summary:
+**Cron Job Configuration**
+* The `crons` key contains an array of one item.
+* This item represents a single cron job with the following properties:
+	+ `path`: The URL path for this cron job, set to `/api/cron`.
+	+ `schedule`: A Unix crontab schedule that runs the task at minute 30 past hour 13 (1:30 PM) every day (`* * *` means every month and year).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\app\globals.css</t>
+          <t>Github_repos\Daraz_Scraper\app\globals.css</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>**Tailwind CSS Configuration Summary**
-This code snippet is a configuration file for Tailwind CSS, a utility-first CSS framework. It defines various base styles and components using the `@tailwind` directive.
-**Key Features:**
-1. **Base Styles**: The first section sets global styles for the HTML document, including margin, padding, box-sizing, and scroll behavior.
-2. **Font Family**: A specific font family (`font-inter`) is applied to the `&lt;body&gt;` element using the `@layer base` directive.
-3. **Components**: The majority of the code defines various components using the `@layer utilities` directive, such as:
-	* Buttons (`.btn`)
-	* Text styles (`.head-text`, `.section-text`, etc.)
-	* Carousel and control dots (`.hero-carousel`, `.carousel`, etc.)
-	* Product details page styles (`.product-container`, `.product-image`, etc.)
-	* Modal window styles (`.dialog-container`, `.dialog-content`, etc.)
-	* Navbar styles (`.nav`, `.nav-logo`)
-	* Price info card styles (`.price-info_card`)
-	* Product card styles (`.product-card`, `.product-card_img-container`, etc.)
-	* Searchbar input styles (`.searchbar-input`, `.searchbar-btn`)
-These components can be used throughout the application to style various UI elements consistently.
-**Conclusion:**
-This code snippet provides a comprehensive set of base styles and component definitions for an application built using Tailwind CSS. The utilities layer defines a wide range of reusable components that can be applied across the application, ensuring consistency in design and styling.</t>
+          <t>This code is a Tailwind CSS configuration file that defines various utility classes for styling HTML elements. The code consists of three main sections:
+1. **Global Styles**: The first section sets global styles for all elements on the page, including margin, padding, box-sizing, and scroll behavior.
+2. **Base Layer**: The second section defines a layer called "base" that contains a single style rule for the `body` element, setting its font family to Inter.
+3. **Utilities Layer**: The third section defines a layer called "utilities" that contains a large number of utility classes for styling various HTML elements, including:
+	* Button styles (e.g., `.btn`, `.btn-primary`)
+	* Text styles (e.g., `.head-text`, `.section-text`)
+	* Container styles (e.g., `.hero-carousel`, `.trending-section`)
+	* Product detail page styles (e.g., `.product-container`, `.product-image`)
+	* Modal styles (e.g., `.dialog-container`, `.dialog-content`)
+	* Navbar styles (e.g., `.nav`, `.nav-logo`)
+	* Price info card styles (e.g., `.price-info_card`)
+	* Product card styles (e.g., `.product-card`, `.product-card_img-container`)
+	* Searchbar input styles (e.g., `.searchbar-input`, `.searchbar-btn`)
+These utility classes can be applied to HTML elements using the `@apply` directive, allowing for consistent and reusable styling throughout the application.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\app\layout.tsx</t>
+          <t>Github_repos\Daraz_Scraper\app\layout.tsx</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**This Next.js project**
+* Imports fonts from Google Fonts (Inter and Space_Grotesk)
+* Includes global CSS styles
+* Uses a custom Navbar component
+* Defines metadata for search engine optimization (SEO), including title and description
+* Creates a `RootLayout` function that wraps the entire app, including:
+	+ A `&lt;html&gt;` element with a language attribute set to "en"
+	+ A `&lt;body&gt;` element with the font styles applied from Inter
+	+ A `&lt;main&gt;` element containing the Navbar component and the children (i.e., the main content of the page)
+Overall, this code sets up a basic structure for a Next.js project, including styling, SEO metadata, and a reusable `RootLayout` component.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Github_repos\Daraz_Scraper\app\page.tsx</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>**Code Summary**
+The provided code is a React component named `Home` that serves as the homepage of an e-commerce application. Here's a breakdown of its functionality:
+* It imports various UI components, such as `HeroCarousel`, `ProductCard`, and `Searchbar`, which are reused throughout the application.
+* The `getAllProducts` function from `@/lib/action` is called to fetch all products from the database. This data is then used to render a list of trending products on the homepage.
+* The component consists of two main sections:
+	1. A hero section with a carousel and promotional content, featuring a search bar and a call-to-action (CTA) paragraph.
+	2. A trending products section that displays a list of product cards fetched from the database.
+**Key Takeaways**
+* The code uses Next.js's built-in image optimization feature (`next/image`) to load images efficiently.
+* It utilizes a custom `getAllProducts` function to fetch data from the database, which is then mapped to render individual product cards.
+* The component employs a combination of Tailwind CSS classes and custom styling to achieve a visually appealing design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Github_repos\Daraz_Scraper\app\api\cron\route.ts</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Here is a summary of the code:
+**Functionality:** This Next.js API endpoint performs a series of tasks, including scraping product details from Daraz, updating the database with the latest prices and sending email notifications based on product status changes.
+**Main Steps:**
+1. **Scrape Latest Product Details**: Scrapes product information from Daraz for each product in the database.
+2. **Update Database**: Updates the database with the scraped product data, including price history.
+3. **Check Product Status &amp; Send Email**: Checks if the product's status has changed and sends an email notification to subscribed users based on the new status.
+**Key Features:**
+* Uses Next.js API endpoint (`GET` request)
+* Utilizes Mongoose for database interactions
+* Incorporates a scrapping library (Daraz) to fetch product information
+* Sends email notifications using Nodemailer
+**Important Variables:**
+* `maxDuration`: The maximum execution time of the function (5 minutes in this case)
+* `dynamic` and `revalidate`: Next.js configuration variables for caching and revalidation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Github_repos\Daraz_Scraper\app\products\[id]\page.tsx</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
 **Overview**
-This code defines a Next.js application's layout and metadata.
+The code defines a React component called `ProductDetails` that displays information about a specific product. The component uses Next.js API routes to fetch data from an external service.
 **Features**
-* Imports two Google fonts, Inter and Space Grotesk.
-* Sets up global CSS styles in `globals.css`.
-* Defines a custom navbar component (`Navbar`) from a separate file.
-* Exports metadata for the application, including title and description.
-* Defines the main application layout, which includes:
-	+ A `&lt;html&gt;` element with a language attribute set to "en".
-	+ A `&lt;body&gt;` element with a class name that applies the Inter font.
-	+ A `&lt;main&gt;` element with a maximum width of 10xl and centered horizontally.
-	+ The custom navbar component (`Navbar`) rendered within the `&lt;main&gt;` element.
-	+ The application's children components, which are passed as props to the `RootLayout` function.
-**Key Functions**
-* `inter`: imports the Inter font and sets its subsets and weights.
-* `spaceGrotesk`: imports the Space Grotesk font and sets its subsets and weights.
-* `metadata`: exports metadata for the application, including title and description.
-* `RootLayout`: defines the main application layout, which includes the navbar and children components.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\app\page.tsx</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Here is a summary of the provided code:
-**File Description:** This is a React-based homepage component, likely used in an e-commerce or shopping platform called "DarazScapper".
-**Main Features:**
-1. **Hero Carousel**: A featured section displaying a carousel with unknown content (not shown in this snippet).
-2. **Searchbar**: A search bar component allowing users to find products.
-3. **Trending Products**: A section showcasing trending products from the platform's database, fetched using the `getAllProducts` function.
-**Components Used:**
-1. `HeroCarousel`
-2. `ProductCard`
-3. `Searchbar`
-**Key Functionality:** The code fetches all products from the server using the `getAllProducts` function and renders them in a grid layout within the "Trending" section.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\app\api\cron\route.ts</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Here is a summary of the code:
-**Functionality**
-This code exports an API endpoint (`GET` request handler) that triggers a cron job-like functionality. The purpose is to:
-1. Scrape the latest product details from Daraz using a scraper function.
-2. Update the corresponding products in a database (using Mongoose).
-3. For each updated product, check its status and send an email notification if necessary.
+* Displays product image, title, category, and URL
+* Shows product price, discount rate, stars rating, reviews count, and product quantity remaining
+* Includes buttons for "Buy Now" and "Visit Shop"
+* Displays a modal with additional product information (e.g. description)
+* Fetches similar products using an external service and displays them in a grid layout
 **Key Components**
-* `scrapeDarazProduct` function: Scrapes the latest product details from Daraz.
-* `connectToDB` function: Connects to a MongoDB database using Mongoose.
-* `Product` model: Represents a product in the database.
-* `getEmailNotifType` and `generateEmailBody` functions: Determine whether an email notification should be sent for each updated product, and construct the email content accordingly.
-* `sendEmail` function: Sends an email notification to registered users.
-**Error Handling**
-The code catches any errors that occur during execution and returns a JSON response with an error message.
-Overall, this code appears to be part of a larger application that monitors products on Daraz and sends email notifications when specific conditions are met.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Daraz_Scraper\app\products\[id]\page.tsx</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>**Code Summary**
-The code is for a React functional component named `ProductDetails`. It's designed to display detailed information about a specific product. The component expects an ID as a parameter, which it uses to fetch the corresponding product data from a backend API.
-Here are the key features of this component:
-1. **Product Information**: Displays essential details like title, category, image, and price.
-2. **Similar Products**: Fetches and displays similar products based on the current product's ID.
-3. **Modal Window**: A modal window is displayed with additional information about the product.
-4. **Seller Details**: Shows seller name, positive rating, and a button to visit their shop.
-The component uses various UI components like `PriceInfoCard`, `ProductCard`, and `Modal` to display the data. It also utilizes Next.js features like server-side rendering and client-side routing.
-**Key Functions Used**
-* `getProductById`: Fetches product data from the backend API based on the provided ID.
-* `getSimilarProducts`: Fetches similar products data from the backend API based on the current product's ID.
-* `redirect`: Redirects the user to a different route if no product is found.
-**Style and Layout**
-The component uses a grid-based layout with CSS classes like "product-container", "flex", and "gap" to arrange elements. It also employs various utility classes from Tailwind CSS to style elements, such as text colors, sizes, and spacing.</t>
+* `getProductById` API route to fetch product data by ID
+* `getSimilarProducts` API route to fetch similar products based on the current product's ID
+* `PriceInfoCard` component to display various price-related information (e.g. current price, average price)
+* `Modal` component to display additional product information
+**Deployment**
+The code is likely deployed as a Next.js web application, using server-side rendering and client-side routing.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\HeroCarousel.tsx</t>
+          <t>Github_repos\Daraz_Scraper\components\HeroCarousel.tsx</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>**Code Summary**
-This is a React component named `HeroCarousel`. It displays a hero image carousel with five images, an arrow icon at the bottom left corner, and no navigation controls (thumbs or arrows). The carousel auto-plays every 2 seconds in an infinite loop.
-The component uses:
-* Next.js's `Image` component for displaying images
-* React Responsive Carousel library to create the carousel
-* Custom CSS classes (`hero-carousel`, `max-xl:hidden absolute -left-[15%] bottom-0`) for styling
+This React component, named `HeroCarousel`, displays a hero image carousel with animated transitions. Here's a breakdown of the code:
+* It imports necessary libraries and components from React, Next.js, and React Responsive Carousel.
+* It defines an array of images (`heroImages`) with corresponding alt tags.
+* The `HeroCarousel` component returns a `div` container with:
+	+ A small arrow icon at the bottom left of the screen.
+	+ A carousel containing multiple images (using the `Image` component) from the `heroImages` array.
+	+ The carousel has been customized to display no thumbs, auto-play with an infinite loop, and show arrows and status indicators are disabled.
 **Key Features**
-* Displays a hero image carousel with five images
-* No navigation controls (thumbs or arrows)
-* Auto-plays every 2 seconds in an infinite loop
-* Uses Next.js's `Image` component and React Responsive Carousel library</t>
+* Customizable hero image carousel
+* Animated transitions between images
+* No thumbs or arrow indicators displayed
+* Auto-plays with an infinite loop</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\Modal.tsx</t>
+          <t>Github_repos\Daraz_Scraper\components\Modal.tsx</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Purpose:** This code creates a modal dialog box that allows users to enter their email address and track product pricing alerts.
-**Key Features:**
-* A "Track" button triggers the modal window to open.
-* The modal contains a logo, a close button, and a form with an input field for the user's email address.
-* When the user submits the form, it sends a request to add their email address to the product using the `addUserEmailToProduct` function.
-* While the submission is in progress, a "Submitting..." message is displayed on the button.
-* After submission, the modal closes and the input field is cleared.
-**Libraries and Imports:**
-* React
-* `useState` hook from React for state management
-* `FormEvent` from React for handling form submissions
-* `Dialog` and `Transition` components from Headless UI library
-* `Image` component from Next.js library
-Overall, this code provides a simple and user-friendly way to collect email addresses from users who want to track product pricing alerts.</t>
+**Purpose:** The code defines a React component called `Modal` that displays a modal window with a form to collect an email address from users. The email address is then used to add the user to a product's pricing alert list.
+**Features:**
+* A button ("Track") is displayed on the page, which opens the modal window when clicked.
+* The modal window has a close button that closes the modal when clicked.
+* Inside the modal, there is a form with an input field for the email address and a submit button.
+* When the form is submitted, the `addUserEmailToProduct` function is called to add the user's email to the product's pricing alert list.
+* The component uses React hooks (`useState` and `useEffect`) to manage its state and side effects.
+**Components:**
+* `Modal`: The main component that displays the modal window with the form.
+* `Transition`: A component from the `@headlessui/react` library that provides a transition effect for the modal window.
+* `Image`: A component from the `next/image` library that displays images (e.g., logos, icons).
+* `FormEvent` and `useState`: Hooks from React that manage form events and state, respectively.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\Navbar.tsx</t>
+          <t>Github_repos\Daraz_Scraper\components\Navbar.tsx</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Overview**: This is a React component that renders a navigation bar (navbar) for a web application.
-**Key Features**:
-* The navbar contains a logo, search icon, heart icon, and user icon.
-* The logo is clickable and links to the homepage (`"/"`).
-* Each icon is an SVG image with alt text.
-* The icons are displayed in a horizontal row with a small gap between them.
-**Technical Details**:
-* Uses Next.js's `Image` component for loading images.
-* Utilizes React's `Link` component for creating clickable links.
-* Defines an array of icon objects (`navIcons`) to render multiple icons dynamically.</t>
+**Code Summary**
+The provided code is for a React component named `Navbar`. It renders a navigation bar with a logo, search icon, heart icon, and user icon. The component uses Next.js's built-in `Image` and `Link` components to display images and links.
+**Key Features:**
+* A logo image with the text "DarazScrapper"
+* Three icons (search, heart, and user) displayed in a row
+* Each icon is an SVG image
+* The navigation bar uses CSS classes for styling
+**Exported Component:**
+The `Navbar` component is exported as the default export of the file.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\PriceInfoCard.tsx</t>
+          <t>Github_repos\Daraz_Scraper\components\PriceInfoCard.tsx</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**PriceInfoCard Component**
-* A reusable React component that displays price information.
-* It takes in three props:
-	+ `title`: a string to display as the card's title.
-	+ `iconSrc`: a string representing the URL of an image icon.
-	+ `value`: a string representing the price value.
-* The component returns a JSX element with the following structure:
-	+ A `&lt;div&gt;` container with a CSS class of `price-info_card`.
-	+ A paragraph displaying the card's title.
-	+ An image icon (using Next.js' `Image` component) alongside the price value, which is displayed in a bold and large font.</t>
+**Code Summary**
+The provided code defines a reusable UI component called `PriceInfoCard`. It takes three props: `title`, `iconSrc`, and `value`. The component displays:
+* A title (p element)
+* An icon (Image from Next.js) alongside the value
+* The value itself (p element)
+The component is styled using CSS classes and utilizes Next.js's Image component for loading icons.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\ProductCard.tsx</t>
+          <t>Github_repos\Daraz_Scraper\components\ProductCard.tsx</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Product Card Component**
-The `ProductCard` component displays a card for a single product, linking to its detailed page. It takes in a `product` object as a prop and renders:
-* An image of the product
-* The product title
-* A list of up to two categories (using a comma separator)
-* The product's current price with currency symbol
-The component uses Next.js's built-in `Link` component for routing, and utilizes the `Image` component from `next/image`.</t>
+**Component:** `ProductCard`
+**Purpose:** Displays a product card with image, title, category, and price information.
+**Features:**
+* Uses Next.js' `Link` component to link to the product details page.
+* Displays the product's image from the `_id`-based URL.
+* Shows the product's title, category (first two categories only), and current price with currency symbol.
+* Uses React hooks and interfaces for Props management.
+**Imported Libraries:**
+* `Image` from Next.js' built-in `image` library
+* `Link` from Next.js
+* `React`
+This component appears to be part of an e-commerce application, displaying a product card on a product list or grid page.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\components\Searchbar.tsx</t>
+          <t>Github_repos\Daraz_Scraper\components\Searchbar.tsx</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Purpose:** This code defines a React component called `Searchbar` that allows users to input a Daraz product URL and submit it for processing.
-**Key Features:**
-1. **URL Validation**: The code includes a function `isValidDarazProductURL` that checks if the input URL is valid by parsing the URL and checking if it belongs to daraz.com.
-2. **Form Handling**: The component uses React's built-in state management system (`useState`) to handle user input and form submission.
-3. **Submission Logic**: When the user submits the form, the code calls the `handleSubmit` function, which:
-	* Validates the input URL using the `isValidDarazProductURL` function.
-	* If valid, it calls the `scrapeAndStoreProduct` function from a separate library (`@/lib/action`) to process the product data.
-	* If processing is successful, it redirects the user to a new page with the processed product ID.
-4. **Loading State**: The code displays a loading state while the submission logic is running.
-Overall, this code provides a simple search bar that allows users to input a Daraz product URL and submits it for processing, displaying a loading state while it runs.</t>
+**Purpose:** A React functional component that renders a search bar for searching products on Daraz.com.
+**Features:**
+1. **Validation**: The component checks if the input link is valid (i.e., from Daraz.com) before submitting the form.
+2. **Submission**: When the user submits the form, it calls an external function `scrapeAndStoreProduct` to scrape and store product data, and then redirects the user to a product page using Next.js's `useRouter` hook.
+3. **Loading indicator**: A "Searching..." message is displayed while the submission process is in progress.
+**States:**
+1. `searchPrompt`: The input text value from the search bar.
+2. `isLoading`: A boolean indicating whether the submission process is in progress.
+Overall, this component provides a simple and functional way to search for products on Daraz.com, with some basic validation and loading indicator features.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\lib\mongoose.ts</t>
+          <t>Github_repos\Daraz_Scraper\lib\mongoose.ts</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Function:** `connectToDB`
-**Purpose:** Establishes a connection to a MongoDB database using Mongoose library.
-**Key Features:**
-* Checks if `MONGODB_URI` environment variable is set, and returns an error message if not.
-* Caches the connection state in `isConnected` variable to avoid reconnecting unnecessarily.
-* Tries to connect to the specified MongoDB URI using `mongoose.connect()`, logging a success message or error message if failed.
-**Return Value:** None (async function)</t>
+**Code Summary**
+This code exports a function `connectToDB` that connects to a MongoDB database using the Mongoose library. The function:
+* Sets up Mongoose with strict query validation enabled
+* Checks if an environment variable `MONGODB_URI` is defined; if not, it logs an error and exits
+* If already connected to the database (due to previous execution of this code), it logs a message indicating that the existing connection will be used instead of creating a new one
+* Establishes a connection to the MongoDB database using the provided URI; on success, sets `isConnected` to true and logs a confirmation message
+* Catches any errors during the connection attempt and logs them as an error</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\lib\utils.ts</t>
+          <t>Github_repos\Daraz_Scraper\lib\utils.ts</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Here is a summary of the provided code:
-**Functionality**
-The code contains functions to extract and process data from web scraping operations. The main functionality includes:
-1. **Price extraction**: Extracting prices from various elements on a webpage.
-2. **Currency symbol extraction**: Extracting currency symbols from elements.
-3. **Description extraction**: Extracting product descriptions from specific HTML elements.
-4. **Price history management**: Functions to get the highest, lowest, and average price from a list of price history items.
-**Key Functions**
-1. `extractPrice`: Extracts prices from various elements on a webpage.
-2. `extractCurrency`: Extracts currency symbols from elements.
-3. `extractDescription`: Extracts product descriptions from specific HTML elements.
-4. `getHighestPrice`, `getLowestPrice`, and `getAveragePrice`: Calculate the highest, lowest, and average price from a list of price history items.
-5. `getEmailNotifType`: Determines the type of email notification to send based on changes in product prices or stock status.
-6. `formatNumber`: Formats numbers with thousands separators.
-**Data Structures**
-The code uses various data structures, including:
-1. `Price`, `PriceHistoryItem`, and `Product` types from a separate file (`"@/types"`).
-Overall, the code is designed to process web scraping data and perform calculations on price history items.</t>
+          <t>**Code Summary**
+This JavaScript code provides utility functions for extracting and processing data from web scraping or API responses. The main functionalities are:
+1. **Data Extraction**: Three functions (`extractPrice`, `extractCurrency`, and `extractDescription`) extract specific data from DOM elements, such as prices, currencies, and product descriptions.
+2. **Price Calculation**: Four functions calculate various price-related values:
+	* `getHighestPrice`: Returns the highest price in a list of prices.
+	* `getLowestPrice`: Returns the lowest price in a list of prices.
+	* `getAveragePrice`: Calculates the average price from a list of prices and returns it as a `Price` object.
+3. **Notification Types**: A function (`getEmailNotifType`) determines the type of notification to send based on changes in product data, such as lowest price or stock availability.
+4. **Formatting**: A function (`formatNumber`) formats numbers with commas for readability.
+**Key Features**
+* The code uses a modular approach, with each function performing a specific task.
+* The functions are designed to be reusable and flexible, allowing for easy modification and extension.
+* The `getEmailNotifType` function demonstrates conditional logic based on multiple factors.
+* The `formatNumber` function provides a simple way to format numbers for display.
+**Context**
+This code is likely used in a web scraping or e-commerce application to process data from online product listings. The functions are designed to be called programmatically, and the results can be used to trigger notifications or updates based on specific conditions.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\lib\action\index.ts</t>
+          <t>Github_repos\Daraz_Scraper\lib\action\index.ts</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Here is a summary of the provided code:
-**Overview**
-This code exports several functions for interacting with products stored in a database using MongoDB.
 **Functions**
-1. **`scrapeAndStoreProduct(productUrl: string)`**: Scrapes product information from Daraz and stores it in the database if it doesn't exist or updates an existing product.
-2. **`getProductById(productId: string)`**: Retrieves a product by its ID from the database.
-3. **`getAllProducts()`**: Retrieves all products from the database.
-4. **`getSimilarProducts(productId: string)`**: Retrieves three similar products (excluding the one with the given ID) from the database.
-5. **`addUserEmailToProduct(productId: string, userEmail: string)`**: Adds a user's email to a product in the database and sends a welcome email to that user.
-**Common Features**
-* All functions use the `connectToDB()` function to establish a connection to the MongoDB database.
-* They also import and use utility functions for calculating average, highest, and lowest prices from a given price history array.
-* The code uses Next.js's `revalidatePath` function to invalidate the cache when a product is updated or created.</t>
+The code exports five functions:
+1. `scrapeAndStoreProduct`: Scrapes product data from Daraz using `scrapeDarazProduct` and stores it in MongoDB using Mongoose. Updates existing product or creates new one if not found.
+2. `getProductById`: Retrieves a product by its ID from MongoDB.
+3. `getAllProducts`: Retrieves all products from MongoDB.
+4. `getSimilarProducts`: Retrieves up to three similar products (different IDs) from MongoDB based on the provided product ID.
+5. `addUserEmailToProduct`: Adds a user's email to the product's list of users in MongoDB and sends a welcome email using Nodemailer.
+**Dependencies**
+The code uses the following dependencies:
+* Next.js (`use server`)
+* Mongoose for MongoDB interaction
+* Daraz scrapper (`scrapeDarazProduct`)
+* Utilities (`getAveragePrice`, `getHighestPrice`, `getLowestPrice`)
+* Types (`User` type)
+**Context**
+The code appears to be part of a web application that allows users to scrape and store product data, retrieve products by ID or all products, find similar products, and add user emails to product lists. The code uses Next.js for server-side rendering and MongoDB as the database.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\lib\models\product.model.ts</t>
+          <t>Github_repos\Daraz_Scraper\lib\models\product.model.ts</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Mongoose Model Definition**
-This code defines a Mongoose model named `Product` using the `mongoose.Schema` constructor. The schema represents a product document in a MongoDB database.
-**Fields and Properties**
-The schema has 23 fields, each with specific properties and requirements. Some notable fields include:
-* `url`: a unique string field representing the product's URL
-* `currency`, `image`, `title`, etc.: required string fields for various product attributes
-* `currentPrice` and `originalPrice`: nested objects with `text` and `value` fields, representing prices
-* `priceHistory`: an array of price history records with `date` and nested `price` objects
-* `isOutOfStock`: a boolean field indicating whether the product is out of stock (defaults to `false`)
-* `users`: an array of user emails associated with the product
-**Timestamps**
-The schema also includes timestamps, which are enabled using the `{ timestamps: true }` option.
-**Model Export**
-Finally, the code exports the `Product` model as a default export, making it available for use in other parts of the application.</t>
+**Mongoose Schema Definition**
+The code defines a Mongoose schema for a "Product" model. The schema has numerous fields that represent various attributes of a product, including:
+* Basic information (url, currency, image, title)
+* Pricing and price history
+* Reviews and ratings (count, scores)
+* Stock status
+* Seller information (shop name, URL, rating)
+* Users associated with the product
+* Price statistics (lowest, highest, average)
+The schema also includes timestamps for when the document was created and last modified.
+**Model Creation**
+The code creates a Mongoose model from the defined schema, using either an existing model or creating a new one if it doesn't exist. The resulting `Product` model is then exported as the default export.
+Overall, this code sets up a Mongoose model for managing products in a MongoDB database.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\lib\nodemailer\index.ts</t>
+          <t>Github_repos\Daraz_Scraper\lib\nodemailer\index.ts</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Here is a summary of the code:
-**Purpose:** This code generates and sends email notifications for price tracking on e-commerce platforms.
-**Key Features:**
-1. **Notification Types:** The code defines four types of notifications:
-	* WELCOME: Welcome to Price Tracking
-	* CHANGE_OF_STOCK: Product is now back in stock
-	* LOWEST_PRICE: Lowest price alert for a product
-	* THRESHOLD_MET: Discount alert when a product reaches a certain percentage off
-2. **Email Generation:** The `generateEmailBody` function generates email bodies based on the notification type and product information.
-3. **Nodemailer Integration:** The code uses Nodemailer to send emails using a pre-configured transporter with Hotmail as the service provider.
-4. **Email Sending:** The `sendEmail` function sends emails to recipients using the generated email body and subject.
-**Exported Functions:**
-1. `generateEmailBody`: Generates an email body based on the notification type and product information.
-2. `sendEmail`: Sends an email to a list of recipients with the generated email body and subject.
-Overall, this code provides a simple yet effective way to generate and send price tracking notifications for e-commerce products using Nodemailer.</t>
+**Overview**
+This Node.js module sends notifications via email using Nodemailer. It generates email bodies based on different types of notifications and uses a pre-configured transporter to send emails.
+**Notification Types**
+The module defines four notification types:
+* `WELCOME`: A welcome email for new users tracking a product.
+* `CHANGE_OF_STOCK`: An in-stock alert for a product.
+* `LOWEST_PRICE`: A lowest price alert for a product.
+* `THRESHOLD_MET`: A discount alert when a product reaches a threshold of 40% off.
+**generateEmailBody Function**
+This function generates the email body based on the notification type and product information. It takes in a `product` object (containing title, URL, etc.) and a `type` parameter (one of the above notification types).
+The function returns an object with `subject` and `body` properties.
+**sendEmail Function**
+This function sends an email using the pre-configured transporter. It takes in an `emailContent` object (with `subject` and `body` properties) and a list of recipients (`sendTo`) to send the email to.
+**Configured Transporter**
+The module uses Nodemailer's createTransport function to set up a pre-configured transporter with:
+* Pooling enabled
+* Service as "hotmail"
+* Port 2525
+* Authentication using an Outlook.com account (with password stored in an environment variable)
+* Max connections set to 1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\lib\scrapper\index.ts</t>
+          <t>Github_repos\Daraz_Scraper\lib\scrapper\index.ts</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Here is a summary of the code:
-**Function Purpose:** The `scrapeDarazProduct` function extracts product information from a given URL on the Daraz e-commerce platform.
-**Key Features:**
-1. Uses Axios to send a GET request to the provided URL.
-2. Parses the response HTML using Cheerio.
-3. Extracts JavaScript code from the page and uses a regular expression to find a specific script that contains product data in JSON format.
-4. Parses the extracted JSON data to extract various product attributes, including:
-	* Seller information (name, URL, rating)
-	* Product rating and review count
-	* Product brand and title
-	* Product description and highlights
-	* Price and discount information
-	* Availability and stock status
-**Function Output:** The function returns a `Product` object containing the extracted product data.
-**Error Handling:** If an error occurs during the scraping process, the function throws a new Error with a descriptive message.</t>
+          <t>**Function Summary**
+The `scrapeDarazProduct` function is an asynchronous function that extracts product information from a specified URL on the Daraz e-commerce platform. It uses Axios and Cheerio libraries to fetch and parse HTML content, then extracts relevant data using regular expressions.
+**Key Functionality:**
+1. Fetches HTML content from the provided URL using Axios.
+2. Parses the HTML using Cheerio.
+3. Extracts product information, including:
+	* Product title
+	* Description
+	* Price (original and sale)
+	* Currency code
+	* Image URL
+	* Category and subcategory
+	* Brand name
+	* Seller shop name and rating
+	* Review count and average rating
+4. Returns the extracted product information as a `Product` object.
+**Assumptions:**
+The function assumes that the provided URL points to a valid Daraz product page, and that the necessary data is available on the page in the expected format.
+**Notes:**
+* The function uses environment variables for authentication with Bright Data.
+* It also uses a random session ID to avoid rate limiting.
+* The extracted data is stored in a `Product` object, which can be used by other parts of the application.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Daraz_Scraper\types\index.ts</t>
+          <t>Github_repos\Daraz_Scraper\types\index.ts</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>**Code Summary**
-The provided code defines a set of types in JavaScript using the `export` keyword. These types represent various entities and data structures used in an e-commerce system.
-**Key Types**
-1. **PriceHistoryItem**: An object with a single property, `price`, which is of type `Price`.
-2. **User**: An object with a single property, `email`, which is a string.
-3. **Product**: A complex object with multiple properties, including:
-	* _id (optional): a string
-	* url: a string
-	* currency: a string
-	* image: a string
-	* title: a string
-	* category: an array of strings
-	* currentPrice and originalPrice: both `Price` objects
-	* priceHistory: an array of `PriceHistoryItem` objects or empty array
-	* discountRate, description, reviewsCount, rateCount, reviewScores, productQuantityValue, stars, isOutOfStock: various data types
-4. **NotificationType**: An enumeration with four possible values:
-	* "WELCOME"
-	* "CHANGE_OF_STOCK"
-	* "LOWEST_PRICE"
-	* "THRESHOLD_MET"
-5. **EmailContent**: An object with two properties:
-	* subject: a string
-	* body: a string
-6. **EmailProductInfo**: An object with two properties:
-	* title: a string
-	* url: a string
-7. **Price**: An object with two properties:
-	* text: a string (displayed value)
-	* value: a number (actual value)
-**Overall**
-The code defines a set of types that can be used to represent data in an e-commerce system, including products, users, notifications, and price-related information.</t>
+The provided code defines a set of types for a product catalog system using TypeScript. These types are organized into several categories:
+1. **Price-related types**:
+	* `PriceHistoryItem`: represents an item in the price history of a product, containing a single `price` property.
+	* `Price`: contains text and numeric value representations of a price.
+2. **Product-related types**:
+	* `User`: represents a user with an email address.
+	* `Product`: describes a product with various properties, including its metadata (title, category, image), pricing information (current and original prices, price history), and ratings/reviews data.
+3. **Notification-related type**:
+	* `NotificationType`: defines four possible notification types: welcome, change of stock, lowest price, and threshold met.
+4. **Email-related types**:
+	* `EmailContent`: represents an email with subject and body text.
+	* `EmailProductInfo`: contains title and URL information for a product in an email context.
+These types appear to be part of a larger application, possibly a e-commerce platform or catalog system, that manages products, notifications, and emails.</t>
         </is>
       </c>
     </row>
